--- a/tests/Feature/config/car_zero.xlsx
+++ b/tests/Feature/config/car_zero.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId4"/>
     <sheet name="Avensis" sheetId="2" r:id="rId5"/>
+    <sheet name="Statistics" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>private</t>
   </si>
@@ -141,16 +142,19 @@
     <t>car</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Drivstoff/Forsikring/Vedlikehold 4000,- pr mnd (med høy dieselpris)Normal: 36000 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndUsing current value: 4000 * 12verditap Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 36000verditap Asset rule Normal: 50000</t>
-  </si>
-  <si>
-    <t>Using previous value: 36000 Asset rule Normal: 50000</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 48000 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
 </sst>
 </file>
@@ -568,7 +572,7 @@
     <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -729,11 +733,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
@@ -751,18 +755,18 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1">
@@ -772,7 +776,7 @@
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
@@ -801,11 +805,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
@@ -823,18 +827,18 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
@@ -844,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
@@ -873,11 +877,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
@@ -895,18 +899,18 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
@@ -916,7 +920,7 @@
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
@@ -945,11 +949,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -967,18 +971,18 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1">
@@ -988,7 +992,7 @@
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
@@ -1017,11 +1021,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -1039,18 +1043,18 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1">
@@ -1060,7 +1064,7 @@
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
@@ -1089,11 +1093,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -1111,18 +1115,18 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
@@ -1132,7 +1136,7 @@
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
@@ -1161,11 +1165,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -1183,18 +1187,18 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1">
@@ -1204,7 +1208,7 @@
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
@@ -1233,11 +1237,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -1255,18 +1259,18 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1">
@@ -1276,7 +1280,7 @@
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
@@ -1305,11 +1309,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -1327,18 +1331,18 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
@@ -1348,7 +1352,7 @@
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
@@ -1377,11 +1381,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -1399,18 +1403,18 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
@@ -1420,7 +1424,7 @@
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
@@ -1449,11 +1453,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -1471,18 +1475,18 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1">
@@ -1492,7 +1496,7 @@
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
@@ -1521,11 +1525,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -1543,18 +1547,18 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="1">
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
@@ -1564,7 +1568,7 @@
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
@@ -1593,11 +1597,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -1615,18 +1619,18 @@
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
@@ -1636,7 +1640,7 @@
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
@@ -1665,11 +1669,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -1687,18 +1691,18 @@
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
@@ -1708,7 +1712,7 @@
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
@@ -1737,11 +1741,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -1759,18 +1763,18 @@
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="1">
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1">
@@ -1780,7 +1784,7 @@
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
@@ -1809,11 +1813,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -1831,18 +1835,18 @@
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1">
@@ -1852,7 +1856,7 @@
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
@@ -1881,11 +1885,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -1903,18 +1907,18 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
@@ -1924,7 +1928,7 @@
         <v>0.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
@@ -1953,11 +1957,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -1975,18 +1979,18 @@
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
@@ -1996,7 +2000,7 @@
         <v>0.0</v>
       </c>
       <c r="V23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
@@ -2025,11 +2029,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -2047,18 +2051,18 @@
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
@@ -2068,7 +2072,7 @@
         <v>0.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
@@ -2097,11 +2101,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -2119,18 +2123,18 @@
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1">
@@ -2140,7 +2144,7 @@
         <v>0.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
@@ -2169,11 +2173,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
@@ -2191,18 +2195,18 @@
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1">
@@ -2212,7 +2216,7 @@
         <v>0.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
@@ -2241,11 +2245,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
@@ -2263,18 +2267,18 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="1">
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1">
@@ -2284,7 +2288,7 @@
         <v>0.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
@@ -2313,11 +2317,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -2335,18 +2339,18 @@
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="1">
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1">
@@ -2356,7 +2360,7 @@
         <v>0.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
@@ -2385,11 +2389,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -2407,18 +2411,18 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1">
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="1">
@@ -2428,7 +2432,7 @@
         <v>0.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
@@ -2457,11 +2461,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -2479,18 +2483,18 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1">
@@ -2500,7 +2504,7 @@
         <v>0.0</v>
       </c>
       <c r="V30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
@@ -2529,11 +2533,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -2551,18 +2555,18 @@
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1">
@@ -2572,7 +2576,7 @@
         <v>0.0</v>
       </c>
       <c r="V31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
@@ -2601,11 +2605,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -2623,18 +2627,18 @@
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1">
@@ -2644,7 +2648,7 @@
         <v>0.0</v>
       </c>
       <c r="V32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
@@ -2673,11 +2677,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -2695,18 +2699,18 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1">
@@ -2716,7 +2720,7 @@
         <v>0.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
@@ -2745,11 +2749,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>36000.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -2767,28 +2771,28 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1">
         <v>0.0</v>
       </c>
       <c r="U34" s="6">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="V34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
@@ -2804,7 +2808,7 @@
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34"/>
@@ -2817,11 +2821,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>36000.0</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -2839,30 +2843,28 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="1">
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="S35" s="2">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S35" s="2"/>
       <c r="T35" s="1">
         <v>0.0</v>
       </c>
       <c r="U35" s="6">
-        <v>-36500.0</v>
+        <v>0.0</v>
       </c>
       <c r="V35" s="1">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
@@ -2878,7 +2880,7 @@
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35"/>
@@ -2891,11 +2893,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>36000.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -2913,30 +2915,28 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S36" s="2"/>
       <c r="T36" s="1">
         <v>0.0</v>
       </c>
       <c r="U36" s="6">
-        <v>-36500.0</v>
+        <v>0.0</v>
       </c>
       <c r="V36" s="1">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
@@ -2952,7 +2952,7 @@
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36"/>
@@ -2965,11 +2965,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>36000.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -2987,30 +2987,28 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S37" s="2"/>
       <c r="T37" s="1">
         <v>0.0</v>
       </c>
       <c r="U37" s="6">
-        <v>-36500.0</v>
+        <v>0.0</v>
       </c>
       <c r="V37" s="1">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
@@ -3026,7 +3024,7 @@
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37"/>
@@ -3039,11 +3037,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="8">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="8">
@@ -3061,18 +3059,18 @@
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="8">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S38" s="9">
         <v>0.01</v>
@@ -3081,10 +3079,10 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="8">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V38" s="8">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
@@ -3100,7 +3098,7 @@
         <v>0.0</v>
       </c>
       <c r="AB38" s="7">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7"/>
@@ -3113,11 +3111,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
@@ -3135,18 +3133,18 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
@@ -3155,10 +3153,10 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V39" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
@@ -3174,7 +3172,7 @@
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39"/>
@@ -3187,11 +3185,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3209,18 +3207,18 @@
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
@@ -3229,10 +3227,10 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V40" s="11">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
@@ -3248,7 +3246,7 @@
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10"/>
@@ -3261,11 +3259,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3283,18 +3281,18 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
@@ -3303,10 +3301,10 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V41" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
@@ -3322,7 +3320,7 @@
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41"/>
@@ -3335,11 +3333,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3357,18 +3355,18 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
@@ -3377,10 +3375,10 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V42" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
@@ -3396,7 +3394,7 @@
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42"/>
@@ -3409,11 +3407,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -3431,18 +3429,18 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
@@ -3451,10 +3449,10 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V43" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
@@ -3470,7 +3468,7 @@
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43"/>
@@ -3483,11 +3481,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -3505,18 +3503,18 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
@@ -3525,10 +3523,10 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V44" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
@@ -3544,7 +3542,7 @@
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44"/>
@@ -3557,11 +3555,11 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -3579,18 +3577,18 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
@@ -3599,10 +3597,10 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V45" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
@@ -3618,7 +3616,7 @@
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45"/>
@@ -3631,11 +3629,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -3653,18 +3651,18 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
@@ -3673,10 +3671,10 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V46" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
@@ -3692,7 +3690,7 @@
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46"/>
@@ -3705,11 +3703,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -3727,18 +3725,18 @@
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
@@ -3747,10 +3745,10 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V47" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
@@ -3766,7 +3764,7 @@
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47"/>
@@ -3779,11 +3777,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -3801,18 +3799,18 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
@@ -3821,10 +3819,10 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V48" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
@@ -3840,7 +3838,7 @@
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48"/>
@@ -3853,11 +3851,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -3875,18 +3873,18 @@
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
@@ -3895,10 +3893,10 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V49" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
@@ -3914,7 +3912,7 @@
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49"/>
@@ -3927,11 +3925,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -3949,18 +3947,18 @@
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
@@ -3969,10 +3967,10 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V50" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
@@ -3988,7 +3986,7 @@
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50"/>
@@ -4001,11 +3999,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4023,18 +4021,18 @@
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
@@ -4043,10 +4041,10 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V51" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
@@ -4062,7 +4060,7 @@
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51"/>
@@ -4075,11 +4073,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4097,18 +4095,18 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
@@ -4117,10 +4115,10 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V52" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
@@ -4136,7 +4134,7 @@
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52"/>
@@ -4149,11 +4147,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4171,18 +4169,18 @@
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
@@ -4191,10 +4189,10 @@
         <v>0.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V53" s="13">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -4210,7 +4208,7 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3"/>
@@ -4223,11 +4221,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4245,18 +4243,18 @@
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
@@ -4265,10 +4263,10 @@
         <v>0.0</v>
       </c>
       <c r="U54" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V54" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -4284,7 +4282,7 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54"/>
@@ -4297,11 +4295,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4319,18 +4317,18 @@
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
@@ -4339,10 +4337,10 @@
         <v>0.0</v>
       </c>
       <c r="U55" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V55" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -4358,7 +4356,7 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55"/>
@@ -4371,11 +4369,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4393,18 +4391,18 @@
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
@@ -4413,10 +4411,10 @@
         <v>0.0</v>
       </c>
       <c r="U56" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V56" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -4432,7 +4430,7 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56"/>
@@ -4445,11 +4443,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -4467,18 +4465,18 @@
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
@@ -4487,10 +4485,10 @@
         <v>0.0</v>
       </c>
       <c r="U57" s="13">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V57" s="13">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -4506,7 +4504,7 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3"/>
@@ -4519,11 +4517,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -4541,18 +4539,18 @@
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="1">
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
@@ -4561,10 +4559,10 @@
         <v>0.0</v>
       </c>
       <c r="U58" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V58" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -4580,7 +4578,7 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58"/>
@@ -4593,11 +4591,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -4615,18 +4613,18 @@
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="1">
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
@@ -4635,10 +4633,10 @@
         <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V59" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -4654,7 +4652,7 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59"/>
@@ -4667,11 +4665,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -4689,18 +4687,18 @@
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="1">
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
@@ -4709,10 +4707,10 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V60" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -4728,7 +4726,7 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60"/>
@@ -4741,11 +4739,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -4763,18 +4761,18 @@
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="1">
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
@@ -4783,10 +4781,10 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V61" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -4802,7 +4800,7 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61"/>
@@ -4815,11 +4813,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -4837,18 +4835,18 @@
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="1">
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
@@ -4857,10 +4855,10 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V62" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -4876,7 +4874,7 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62"/>
@@ -4889,11 +4887,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -4911,18 +4909,18 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="1">
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
@@ -4931,10 +4929,10 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V63" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -4950,7 +4948,7 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63"/>
@@ -4963,11 +4961,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -4985,18 +4983,18 @@
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="1">
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
@@ -5005,10 +5003,10 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V64" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -5024,7 +5022,7 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64"/>
@@ -5037,11 +5035,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5059,18 +5057,18 @@
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="1">
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
@@ -5079,10 +5077,10 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V65" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -5098,7 +5096,7 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65"/>
@@ -5111,11 +5109,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5133,18 +5131,18 @@
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="1">
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S66" s="2">
         <v>0.01</v>
@@ -5153,10 +5151,10 @@
         <v>0.0</v>
       </c>
       <c r="U66" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V66" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
@@ -5172,7 +5170,7 @@
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66"/>
@@ -5185,11 +5183,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5207,18 +5205,18 @@
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="1">
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S67" s="2">
         <v>0.01</v>
@@ -5227,10 +5225,10 @@
         <v>0.0</v>
       </c>
       <c r="U67" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V67" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
@@ -5246,7 +5244,7 @@
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67"/>
@@ -5259,11 +5257,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5281,18 +5279,18 @@
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="1">
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S68" s="2">
         <v>0.01</v>
@@ -5301,10 +5299,10 @@
         <v>0.0</v>
       </c>
       <c r="U68" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V68" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
@@ -5320,7 +5318,7 @@
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68"/>
@@ -5333,11 +5331,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5355,18 +5353,18 @@
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="1">
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S69" s="2">
         <v>0.01</v>
@@ -5375,10 +5373,10 @@
         <v>0.0</v>
       </c>
       <c r="U69" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V69" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
@@ -5394,7 +5392,7 @@
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69"/>
@@ -5407,11 +5405,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -5429,18 +5427,18 @@
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="1">
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S70" s="2">
         <v>0.01</v>
@@ -5449,10 +5447,10 @@
         <v>0.0</v>
       </c>
       <c r="U70" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V70" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
@@ -5468,7 +5466,7 @@
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70"/>
@@ -5481,11 +5479,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -5503,18 +5501,18 @@
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="1">
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S71" s="2">
         <v>0.01</v>
@@ -5523,10 +5521,10 @@
         <v>0.0</v>
       </c>
       <c r="U71" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V71" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
@@ -5542,7 +5540,7 @@
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71"/>
@@ -5555,11 +5553,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -5577,18 +5575,18 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N72" s="16"/>
       <c r="O72" s="5">
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S72" s="16">
         <v>0.01</v>
@@ -5597,10 +5595,10 @@
         <v>0.0</v>
       </c>
       <c r="U72" s="5">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V72" s="5">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
@@ -5616,7 +5614,7 @@
         <v>0.0</v>
       </c>
       <c r="AB72" s="15">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15"/>
@@ -5889,7 +5887,7 @@
     <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -6052,11 +6050,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
@@ -6066,18 +6064,18 @@
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1">
@@ -6087,7 +6085,7 @@
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
@@ -6116,11 +6114,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -6130,18 +6128,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="2"/>
       <c r="M7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
@@ -6151,7 +6149,7 @@
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
@@ -6180,11 +6178,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
@@ -6194,18 +6192,18 @@
       <c r="K8" s="1"/>
       <c r="L8" s="2"/>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
@@ -6215,7 +6213,7 @@
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
@@ -6244,11 +6242,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -6258,18 +6256,18 @@
       <c r="K9" s="1"/>
       <c r="L9" s="2"/>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1">
@@ -6279,7 +6277,7 @@
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
@@ -6308,11 +6306,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -6322,18 +6320,18 @@
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1">
@@ -6343,7 +6341,7 @@
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
@@ -6372,11 +6370,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
@@ -6386,18 +6384,18 @@
       <c r="K11" s="1"/>
       <c r="L11" s="2"/>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
@@ -6407,7 +6405,7 @@
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
@@ -6436,11 +6434,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
@@ -6450,18 +6448,18 @@
       <c r="K12" s="1"/>
       <c r="L12" s="2"/>
       <c r="M12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1">
@@ -6471,7 +6469,7 @@
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
@@ -6500,11 +6498,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
@@ -6514,18 +6512,18 @@
       <c r="K13" s="1"/>
       <c r="L13" s="2"/>
       <c r="M13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1">
@@ -6535,7 +6533,7 @@
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
@@ -6564,11 +6562,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -6578,18 +6576,18 @@
       <c r="K14" s="1"/>
       <c r="L14" s="2"/>
       <c r="M14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
@@ -6599,7 +6597,7 @@
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
@@ -6628,11 +6626,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -6642,18 +6640,18 @@
       <c r="K15" s="1"/>
       <c r="L15" s="2"/>
       <c r="M15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
@@ -6663,7 +6661,7 @@
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
@@ -6692,11 +6690,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -6706,18 +6704,18 @@
       <c r="K16" s="1"/>
       <c r="L16" s="2"/>
       <c r="M16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1">
@@ -6727,7 +6725,7 @@
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
@@ -6756,11 +6754,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -6770,18 +6768,18 @@
       <c r="K17" s="1"/>
       <c r="L17" s="2"/>
       <c r="M17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="1">
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
@@ -6791,7 +6789,7 @@
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
@@ -6820,11 +6818,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -6834,18 +6832,18 @@
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
       <c r="M18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
@@ -6855,7 +6853,7 @@
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
@@ -6884,11 +6882,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -6898,18 +6896,18 @@
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
       <c r="M19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
@@ -6919,7 +6917,7 @@
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
@@ -6948,11 +6946,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -6962,18 +6960,18 @@
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
       <c r="M20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="1">
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1">
@@ -6983,7 +6981,7 @@
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
@@ -7012,11 +7010,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -7026,18 +7024,18 @@
       <c r="K21" s="1"/>
       <c r="L21" s="2"/>
       <c r="M21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1">
@@ -7047,7 +7045,7 @@
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
@@ -7076,11 +7074,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -7090,18 +7088,18 @@
       <c r="K22" s="1"/>
       <c r="L22" s="2"/>
       <c r="M22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
@@ -7111,7 +7109,7 @@
         <v>0.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
@@ -7140,11 +7138,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
@@ -7154,18 +7152,18 @@
       <c r="K23" s="1"/>
       <c r="L23" s="2"/>
       <c r="M23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
@@ -7175,7 +7173,7 @@
         <v>0.0</v>
       </c>
       <c r="V23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
@@ -7204,11 +7202,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
@@ -7218,18 +7216,18 @@
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
       <c r="M24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
@@ -7239,7 +7237,7 @@
         <v>0.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
@@ -7268,11 +7266,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
@@ -7282,18 +7280,18 @@
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
       <c r="M25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1">
@@ -7303,7 +7301,7 @@
         <v>0.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
@@ -7332,11 +7330,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
@@ -7346,18 +7344,18 @@
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
       <c r="M26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1">
@@ -7367,7 +7365,7 @@
         <v>0.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
@@ -7396,11 +7394,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -7410,18 +7408,18 @@
       <c r="K27" s="1"/>
       <c r="L27" s="2"/>
       <c r="M27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="1">
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1">
@@ -7431,7 +7429,7 @@
         <v>0.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
@@ -7460,11 +7458,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -7474,18 +7472,18 @@
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
       <c r="M28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="1">
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1">
@@ -7495,7 +7493,7 @@
         <v>0.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
@@ -7524,11 +7522,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -7538,18 +7536,18 @@
       <c r="K29" s="1"/>
       <c r="L29" s="2"/>
       <c r="M29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1">
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="1">
@@ -7559,7 +7557,7 @@
         <v>0.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
@@ -7588,11 +7586,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -7602,18 +7600,18 @@
       <c r="K30" s="1"/>
       <c r="L30" s="2"/>
       <c r="M30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1">
@@ -7623,7 +7621,7 @@
         <v>0.0</v>
       </c>
       <c r="V30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
@@ -7652,11 +7650,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -7666,18 +7664,18 @@
       <c r="K31" s="1"/>
       <c r="L31" s="2"/>
       <c r="M31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1">
@@ -7687,7 +7685,7 @@
         <v>0.0</v>
       </c>
       <c r="V31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
@@ -7716,11 +7714,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -7730,18 +7728,18 @@
       <c r="K32" s="1"/>
       <c r="L32" s="2"/>
       <c r="M32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1">
@@ -7751,7 +7749,7 @@
         <v>0.0</v>
       </c>
       <c r="V32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
@@ -7780,11 +7778,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -7794,18 +7792,18 @@
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
       <c r="M33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1">
@@ -7815,7 +7813,7 @@
         <v>0.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
@@ -7844,11 +7842,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>36000.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
@@ -7858,28 +7856,28 @@
       <c r="K34" s="1"/>
       <c r="L34" s="2"/>
       <c r="M34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1">
         <v>0.0</v>
       </c>
       <c r="U34" s="6">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="V34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
@@ -7893,11 +7891,11 @@
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -7908,11 +7906,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>36000.0</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
@@ -7922,30 +7920,28 @@
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
       <c r="M35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="1">
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="S35" s="2">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S35" s="2"/>
       <c r="T35" s="1">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
       <c r="U35" s="6">
-        <v>-36500.0</v>
+        <v>0.0</v>
       </c>
       <c r="V35" s="1">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
@@ -7959,11 +7955,11 @@
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -7974,11 +7970,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>36000.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
@@ -7988,30 +7984,28 @@
       <c r="K36" s="1"/>
       <c r="L36" s="2"/>
       <c r="M36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S36" s="2"/>
       <c r="T36" s="1">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
       <c r="U36" s="6">
-        <v>-36500.0</v>
+        <v>0.0</v>
       </c>
       <c r="V36" s="1">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
@@ -8025,11 +8019,11 @@
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -8040,11 +8034,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>36000.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
@@ -8054,30 +8048,28 @@
       <c r="K37" s="1"/>
       <c r="L37" s="2"/>
       <c r="M37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S37" s="2"/>
       <c r="T37" s="1">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
       <c r="U37" s="6">
-        <v>-36500.0</v>
+        <v>0.0</v>
       </c>
       <c r="V37" s="1">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
@@ -8091,11 +8083,11 @@
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -8106,11 +8098,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="8">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="8"/>
@@ -8120,30 +8112,30 @@
       <c r="K38" s="8"/>
       <c r="L38" s="9"/>
       <c r="M38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="8">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S38" s="9">
         <v>0.01</v>
       </c>
       <c r="T38" s="8">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U38" s="8">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V38" s="8">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
@@ -8157,11 +8149,11 @@
         <v>0.0</v>
       </c>
       <c r="AB38" s="7">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -8172,11 +8164,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
@@ -8186,30 +8178,30 @@
       <c r="K39" s="1"/>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
       </c>
       <c r="T39" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U39" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V39" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
@@ -8223,11 +8215,11 @@
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -8238,11 +8230,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11"/>
@@ -8252,30 +8244,30 @@
       <c r="K40" s="11"/>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
       </c>
       <c r="T40" s="11">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V40" s="11">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
@@ -8289,11 +8281,11 @@
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -8304,11 +8296,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
@@ -8318,30 +8310,30 @@
       <c r="K41" s="1"/>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
       </c>
       <c r="T41" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V41" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
@@ -8355,11 +8347,11 @@
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -8370,11 +8362,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
@@ -8384,30 +8376,30 @@
       <c r="K42" s="1"/>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
       </c>
       <c r="T42" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V42" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
@@ -8421,11 +8413,11 @@
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -8436,11 +8428,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
@@ -8450,30 +8442,30 @@
       <c r="K43" s="1"/>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
       </c>
       <c r="T43" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V43" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
@@ -8487,11 +8479,11 @@
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -8502,11 +8494,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
@@ -8516,30 +8508,30 @@
       <c r="K44" s="1"/>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
       </c>
       <c r="T44" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V44" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
@@ -8553,11 +8545,11 @@
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -8568,11 +8560,11 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
@@ -8582,30 +8574,30 @@
       <c r="K45" s="1"/>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
       </c>
       <c r="T45" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V45" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
@@ -8619,11 +8611,11 @@
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8634,11 +8626,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
@@ -8648,30 +8640,30 @@
       <c r="K46" s="1"/>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
       </c>
       <c r="T46" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V46" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
@@ -8685,11 +8677,11 @@
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -8700,11 +8692,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
@@ -8714,30 +8706,30 @@
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
       </c>
       <c r="T47" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V47" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
@@ -8751,11 +8743,11 @@
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -8766,11 +8758,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
@@ -8780,30 +8772,30 @@
       <c r="K48" s="1"/>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
       </c>
       <c r="T48" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V48" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
@@ -8817,11 +8809,11 @@
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -8832,11 +8824,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1"/>
@@ -8846,30 +8838,30 @@
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
       </c>
       <c r="T49" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V49" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
@@ -8883,11 +8875,11 @@
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -8898,11 +8890,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
@@ -8912,30 +8904,30 @@
       <c r="K50" s="1"/>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
       </c>
       <c r="T50" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V50" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
@@ -8949,11 +8941,11 @@
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -8964,11 +8956,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
@@ -8978,30 +8970,30 @@
       <c r="K51" s="1"/>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
       </c>
       <c r="T51" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V51" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
@@ -9015,11 +9007,11 @@
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -9030,11 +9022,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1"/>
@@ -9044,30 +9036,30 @@
       <c r="K52" s="1"/>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
       </c>
       <c r="T52" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V52" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
@@ -9081,11 +9073,11 @@
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -9096,11 +9088,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13"/>
@@ -9110,30 +9102,30 @@
       <c r="K53" s="13"/>
       <c r="L53" s="14"/>
       <c r="M53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V53" s="13">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -9147,11 +9139,11 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -9162,11 +9154,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1"/>
@@ -9176,30 +9168,30 @@
       <c r="K54" s="1"/>
       <c r="L54" s="2"/>
       <c r="M54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V54" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -9213,11 +9205,11 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9228,11 +9220,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1"/>
@@ -9242,30 +9234,30 @@
       <c r="K55" s="1"/>
       <c r="L55" s="2"/>
       <c r="M55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V55" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -9279,11 +9271,11 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9294,11 +9286,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
@@ -9308,30 +9300,30 @@
       <c r="K56" s="1"/>
       <c r="L56" s="2"/>
       <c r="M56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V56" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -9345,11 +9337,11 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9360,11 +9352,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13"/>
@@ -9374,30 +9366,30 @@
       <c r="K57" s="13"/>
       <c r="L57" s="14"/>
       <c r="M57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V57" s="13">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -9411,11 +9403,11 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9426,11 +9418,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1"/>
@@ -9440,30 +9432,30 @@
       <c r="K58" s="1"/>
       <c r="L58" s="2"/>
       <c r="M58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="1">
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V58" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -9477,11 +9469,11 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9492,11 +9484,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1"/>
@@ -9506,30 +9498,30 @@
       <c r="K59" s="1"/>
       <c r="L59" s="2"/>
       <c r="M59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="1">
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V59" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -9543,11 +9535,11 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9558,11 +9550,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1"/>
@@ -9572,30 +9564,30 @@
       <c r="K60" s="1"/>
       <c r="L60" s="2"/>
       <c r="M60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="1">
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
       </c>
       <c r="T60" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V60" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -9609,11 +9601,11 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9624,11 +9616,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1"/>
@@ -9638,30 +9630,30 @@
       <c r="K61" s="1"/>
       <c r="L61" s="2"/>
       <c r="M61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="1">
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
       </c>
       <c r="T61" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V61" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -9675,11 +9667,11 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -9690,11 +9682,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1"/>
@@ -9704,30 +9696,30 @@
       <c r="K62" s="1"/>
       <c r="L62" s="2"/>
       <c r="M62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="1">
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
       </c>
       <c r="T62" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V62" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -9741,11 +9733,11 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -9756,11 +9748,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1"/>
@@ -9770,30 +9762,30 @@
       <c r="K63" s="1"/>
       <c r="L63" s="2"/>
       <c r="M63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="1">
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V63" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -9807,11 +9799,11 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -9822,11 +9814,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1"/>
@@ -9836,30 +9828,30 @@
       <c r="K64" s="1"/>
       <c r="L64" s="2"/>
       <c r="M64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="1">
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
       </c>
       <c r="T64" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V64" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -9873,11 +9865,11 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -9888,11 +9880,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1"/>
@@ -9902,30 +9894,30 @@
       <c r="K65" s="1"/>
       <c r="L65" s="2"/>
       <c r="M65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="1">
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
       </c>
       <c r="T65" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V65" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -9939,11 +9931,11 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -9954,11 +9946,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1"/>
@@ -9968,30 +9960,30 @@
       <c r="K66" s="1"/>
       <c r="L66" s="2"/>
       <c r="M66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="1">
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S66" s="2">
         <v>0.01</v>
       </c>
       <c r="T66" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V66" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
@@ -10005,11 +9997,11 @@
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10020,11 +10012,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1"/>
@@ -10034,30 +10026,30 @@
       <c r="K67" s="1"/>
       <c r="L67" s="2"/>
       <c r="M67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="1">
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S67" s="2">
         <v>0.01</v>
       </c>
       <c r="T67" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V67" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
@@ -10071,11 +10063,11 @@
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10086,11 +10078,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1"/>
@@ -10100,30 +10092,30 @@
       <c r="K68" s="1"/>
       <c r="L68" s="2"/>
       <c r="M68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="1">
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S68" s="2">
         <v>0.01</v>
       </c>
       <c r="T68" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V68" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
@@ -10137,11 +10129,11 @@
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10152,11 +10144,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1"/>
@@ -10166,30 +10158,30 @@
       <c r="K69" s="1"/>
       <c r="L69" s="2"/>
       <c r="M69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="1">
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S69" s="2">
         <v>0.01</v>
       </c>
       <c r="T69" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V69" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
@@ -10203,11 +10195,11 @@
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10218,11 +10210,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1"/>
@@ -10232,30 +10224,30 @@
       <c r="K70" s="1"/>
       <c r="L70" s="2"/>
       <c r="M70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="1">
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S70" s="2">
         <v>0.01</v>
       </c>
       <c r="T70" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V70" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
@@ -10269,11 +10261,11 @@
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10284,11 +10276,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1"/>
@@ -10298,30 +10290,30 @@
       <c r="K71" s="1"/>
       <c r="L71" s="2"/>
       <c r="M71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="1">
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S71" s="2">
         <v>0.01</v>
       </c>
       <c r="T71" s="1">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V71" s="1">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
@@ -10335,11 +10327,11 @@
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10350,11 +10342,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>36000.0</v>
+        <v>48000</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5"/>
@@ -10364,30 +10356,30 @@
       <c r="K72" s="5"/>
       <c r="L72" s="16"/>
       <c r="M72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N72" s="16"/>
       <c r="O72" s="5">
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="S72" s="16">
         <v>0.01</v>
       </c>
       <c r="T72" s="5">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U72" s="5">
-        <v>-36500.0</v>
+        <v>-49000.0</v>
       </c>
       <c r="V72" s="5">
-        <v>50000.0</v>
+        <v>100000</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
@@ -10401,11 +10393,11 @@
         <v>0.0</v>
       </c>
       <c r="AB72" s="15">
-        <v>-36000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -10646,4 +10638,32 @@
   </headerFooter>
   <tableParts count="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
 </file>
--- a/tests/Feature/config/car_zero.xlsx
+++ b/tests/Feature/config/car_zero.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>private</t>
   </si>
@@ -100,6 +100,9 @@
     <t>% Økning</t>
   </si>
   <si>
+    <t>Formue innskutt</t>
+  </si>
+  <si>
     <t>Formue skattbar</t>
   </si>
   <si>
@@ -142,18 +145,15 @@
     <t>car</t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndUsing current value: 4000 * 12verditap Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndUsing current amount: 4000 * 12verditap Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 48000 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 48000 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
 </sst>
@@ -575,14 +575,14 @@
     <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -625,10 +625,10 @@
       <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -723,7 +723,9 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
@@ -768,20 +770,18 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
@@ -789,13 +789,15 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0.0</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6"/>
+      <c r="AC6">
+        <v>0.0</v>
+      </c>
+      <c r="AE6"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7">
@@ -840,20 +842,18 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
@@ -861,13 +861,15 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0.0</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7"/>
+      <c r="AC7">
+        <v>0.0</v>
+      </c>
+      <c r="AE7"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8">
@@ -912,20 +914,18 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
@@ -933,13 +933,15 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8"/>
+      <c r="AC8">
+        <v>0.0</v>
+      </c>
+      <c r="AE8"/>
     </row>
     <row r="9" spans="1:31">
       <c r="A9">
@@ -984,20 +986,18 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
@@ -1005,13 +1005,15 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9"/>
+      <c r="AC9">
+        <v>0.0</v>
+      </c>
+      <c r="AE9"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10">
@@ -1056,20 +1058,18 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="6"/>
       <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
@@ -1077,13 +1077,15 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0.0</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10"/>
+      <c r="AC10">
+        <v>0.0</v>
+      </c>
+      <c r="AE10"/>
     </row>
     <row r="11" spans="1:31">
       <c r="A11">
@@ -1128,20 +1130,18 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
@@ -1149,13 +1149,15 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0.0</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11"/>
+      <c r="AC11">
+        <v>0.0</v>
+      </c>
+      <c r="AE11"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12">
@@ -1200,20 +1202,18 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
@@ -1221,13 +1221,15 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0.0</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12"/>
+      <c r="AC12">
+        <v>0.0</v>
+      </c>
+      <c r="AE12"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13">
@@ -1272,20 +1274,18 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
@@ -1293,13 +1293,15 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0.0</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13"/>
+      <c r="AC13">
+        <v>0.0</v>
+      </c>
+      <c r="AE13"/>
     </row>
     <row r="14" spans="1:31">
       <c r="A14">
@@ -1344,20 +1346,18 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
@@ -1365,13 +1365,15 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0.0</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14"/>
+      <c r="AC14">
+        <v>0.0</v>
+      </c>
+      <c r="AE14"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15">
@@ -1416,20 +1418,18 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
@@ -1437,13 +1437,15 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0.0</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15"/>
+      <c r="AC15">
+        <v>0.0</v>
+      </c>
+      <c r="AE15"/>
     </row>
     <row r="16" spans="1:31">
       <c r="A16">
@@ -1488,20 +1490,18 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
@@ -1509,13 +1509,15 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0.0</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16"/>
+      <c r="AC16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16"/>
     </row>
     <row r="17" spans="1:31">
       <c r="A17">
@@ -1560,20 +1562,18 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
@@ -1581,13 +1581,15 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>0.0</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17"/>
+      <c r="AC17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17"/>
     </row>
     <row r="18" spans="1:31">
       <c r="A18">
@@ -1632,20 +1634,18 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
@@ -1653,13 +1653,15 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0.0</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18"/>
+      <c r="AC18">
+        <v>0.0</v>
+      </c>
+      <c r="AE18"/>
     </row>
     <row r="19" spans="1:31">
       <c r="A19">
@@ -1704,20 +1706,18 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
@@ -1725,13 +1725,15 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>0.0</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19"/>
+      <c r="AC19">
+        <v>0.0</v>
+      </c>
+      <c r="AE19"/>
     </row>
     <row r="20" spans="1:31">
       <c r="A20">
@@ -1776,20 +1778,18 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="6"/>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
@@ -1797,13 +1797,15 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20"/>
+      <c r="AC20">
+        <v>0.0</v>
+      </c>
+      <c r="AE20"/>
     </row>
     <row r="21" spans="1:31">
       <c r="A21">
@@ -1848,20 +1850,18 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
@@ -1869,13 +1869,15 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>0.0</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21"/>
+      <c r="AC21">
+        <v>0.0</v>
+      </c>
+      <c r="AE21"/>
     </row>
     <row r="22" spans="1:31">
       <c r="A22">
@@ -1920,20 +1922,18 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U22" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="6"/>
       <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
       <c r="Y22" s="1">
         <v>0</v>
       </c>
@@ -1941,13 +1941,15 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>0.0</v>
       </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22"/>
+      <c r="AC22">
+        <v>0.0</v>
+      </c>
+      <c r="AE22"/>
     </row>
     <row r="23" spans="1:31">
       <c r="A23">
@@ -1992,20 +1994,18 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U23" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="6"/>
       <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
       <c r="Y23" s="1">
         <v>0</v>
       </c>
@@ -2013,13 +2013,15 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>0.0</v>
       </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23"/>
+      <c r="AC23">
+        <v>0.0</v>
+      </c>
+      <c r="AE23"/>
     </row>
     <row r="24" spans="1:31">
       <c r="A24">
@@ -2064,20 +2066,18 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="6"/>
       <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
       <c r="Y24" s="1">
         <v>0</v>
       </c>
@@ -2085,13 +2085,15 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB24">
         <v>0.0</v>
       </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24"/>
+      <c r="AC24">
+        <v>0.0</v>
+      </c>
+      <c r="AE24"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25">
@@ -2136,20 +2138,18 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U25" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="6"/>
       <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
       <c r="Y25" s="1">
         <v>0</v>
       </c>
@@ -2157,13 +2157,15 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <v>0.0</v>
       </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25"/>
+      <c r="AC25">
+        <v>0.0</v>
+      </c>
+      <c r="AE25"/>
     </row>
     <row r="26" spans="1:31">
       <c r="A26">
@@ -2208,20 +2210,18 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U26" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="6"/>
       <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
       <c r="Y26" s="1">
         <v>0</v>
       </c>
@@ -2229,13 +2229,15 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <v>0.0</v>
       </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26"/>
+      <c r="AC26">
+        <v>0.0</v>
+      </c>
+      <c r="AE26"/>
     </row>
     <row r="27" spans="1:31">
       <c r="A27">
@@ -2280,20 +2282,18 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U27" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="6"/>
       <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
       <c r="Y27" s="1">
         <v>0</v>
       </c>
@@ -2301,13 +2301,15 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB27">
         <v>0.0</v>
       </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27"/>
+      <c r="AC27">
+        <v>0.0</v>
+      </c>
+      <c r="AE27"/>
     </row>
     <row r="28" spans="1:31">
       <c r="A28">
@@ -2352,20 +2354,18 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U28" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="6"/>
       <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
       <c r="Y28" s="1">
         <v>0</v>
       </c>
@@ -2373,13 +2373,15 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0.0</v>
       </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28"/>
+      <c r="AC28">
+        <v>0.0</v>
+      </c>
+      <c r="AE28"/>
     </row>
     <row r="29" spans="1:31">
       <c r="A29">
@@ -2424,20 +2426,18 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U29" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="6"/>
       <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
       <c r="Y29" s="1">
         <v>0</v>
       </c>
@@ -2445,13 +2445,15 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>0.0</v>
       </c>
-      <c r="AC29" s="2"/>
-      <c r="AD29"/>
+      <c r="AC29">
+        <v>0.0</v>
+      </c>
+      <c r="AE29"/>
     </row>
     <row r="30" spans="1:31">
       <c r="A30">
@@ -2496,20 +2498,18 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U30" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="6"/>
       <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
       <c r="Y30" s="1">
         <v>0</v>
       </c>
@@ -2517,13 +2517,15 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0.0</v>
       </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30"/>
+      <c r="AC30">
+        <v>0.0</v>
+      </c>
+      <c r="AE30"/>
     </row>
     <row r="31" spans="1:31">
       <c r="A31">
@@ -2568,20 +2570,18 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U31" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="6"/>
       <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
       <c r="Y31" s="1">
         <v>0</v>
       </c>
@@ -2589,13 +2589,15 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <v>0.0</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31"/>
+      <c r="AC31">
+        <v>0.0</v>
+      </c>
+      <c r="AE31"/>
     </row>
     <row r="32" spans="1:31">
       <c r="A32">
@@ -2640,20 +2642,18 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U32" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="6"/>
       <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
       <c r="Y32" s="1">
         <v>0</v>
       </c>
@@ -2661,13 +2661,15 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <v>0.0</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32"/>
+      <c r="AC32">
+        <v>0.0</v>
+      </c>
+      <c r="AE32"/>
     </row>
     <row r="33" spans="1:31">
       <c r="A33">
@@ -2712,20 +2714,18 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U33" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="6"/>
       <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
       <c r="Y33" s="1">
         <v>0</v>
       </c>
@@ -2733,13 +2733,15 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB33">
         <v>0.0</v>
       </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33"/>
+      <c r="AC33">
+        <v>0.0</v>
+      </c>
+      <c r="AE33"/>
     </row>
     <row r="34" spans="1:31">
       <c r="A34">
@@ -2784,20 +2786,18 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U34" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="6"/>
       <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
       <c r="Y34" s="1">
         <v>0</v>
       </c>
@@ -2805,13 +2805,15 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB34">
         <v>0.0</v>
       </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34"/>
+      <c r="AC34">
+        <v>0.0</v>
+      </c>
+      <c r="AE34"/>
     </row>
     <row r="35" spans="1:31">
       <c r="A35">
@@ -2856,20 +2858,18 @@
       <c r="R35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U35" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="6"/>
       <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
       <c r="Y35" s="1">
         <v>0</v>
       </c>
@@ -2877,13 +2877,15 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB35">
         <v>0.0</v>
       </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35"/>
+      <c r="AC35">
+        <v>0.0</v>
+      </c>
+      <c r="AE35"/>
     </row>
     <row r="36" spans="1:31">
       <c r="A36">
@@ -2928,20 +2930,18 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U36" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="6"/>
       <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
       <c r="Y36" s="1">
         <v>0</v>
       </c>
@@ -2949,13 +2949,15 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB36">
         <v>0.0</v>
       </c>
-      <c r="AC36" s="2"/>
-      <c r="AD36"/>
+      <c r="AC36">
+        <v>0.0</v>
+      </c>
+      <c r="AE36"/>
     </row>
     <row r="37" spans="1:31">
       <c r="A37">
@@ -3000,20 +3002,18 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U37" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="6"/>
       <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
       <c r="Y37" s="1">
         <v>0</v>
       </c>
@@ -3021,13 +3021,15 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB37">
         <v>0.0</v>
       </c>
-      <c r="AC37" s="2"/>
-      <c r="AD37"/>
+      <c r="AC37">
+        <v>0.0</v>
+      </c>
+      <c r="AE37"/>
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="7">
@@ -3072,22 +3074,18 @@
       <c r="R38" s="8">
         <v>100000</v>
       </c>
-      <c r="S38" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T38" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U38" s="8">
+      <c r="S38" s="8">
+        <v>100000</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8">
         <v>-49000.0</v>
       </c>
-      <c r="V38" s="8">
-        <v>100000</v>
-      </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="8">
-        <v>0</v>
-      </c>
+      <c r="W38" s="8">
+        <v>100000</v>
+      </c>
+      <c r="X38" s="8"/>
       <c r="Y38" s="8">
         <v>0</v>
       </c>
@@ -3095,13 +3093,16 @@
         <v>0</v>
       </c>
       <c r="AA38" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="7">
         <v>-48000.0</v>
       </c>
-      <c r="AC38" s="9"/>
       <c r="AD38" s="7"/>
+      <c r="AE38"/>
     </row>
     <row r="39" spans="1:31">
       <c r="A39">
@@ -3146,22 +3147,18 @@
       <c r="R39" s="1">
         <v>100000</v>
       </c>
-      <c r="S39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U39" s="6">
+      <c r="S39" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V39" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="1">
-        <v>0</v>
-      </c>
+      <c r="W39" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1">
         <v>0</v>
       </c>
@@ -3169,13 +3166,15 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB39">
+        <v>0.0</v>
+      </c>
+      <c r="AC39">
         <v>-48000.0</v>
       </c>
-      <c r="AC39" s="2"/>
-      <c r="AD39"/>
+      <c r="AE39"/>
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="10">
@@ -3220,22 +3219,18 @@
       <c r="R40" s="11">
         <v>100000</v>
       </c>
-      <c r="S40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="U40" s="11">
+      <c r="S40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11">
         <v>-49000.0</v>
       </c>
-      <c r="V40" s="11">
-        <v>100000</v>
-      </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="11">
-        <v>0</v>
-      </c>
+      <c r="W40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
@@ -3243,13 +3238,16 @@
         <v>0</v>
       </c>
       <c r="AA40" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>-48000.0</v>
       </c>
-      <c r="AC40" s="12"/>
       <c r="AD40" s="10"/>
+      <c r="AE40"/>
     </row>
     <row r="41" spans="1:31">
       <c r="A41">
@@ -3294,22 +3292,18 @@
       <c r="R41" s="1">
         <v>100000</v>
       </c>
-      <c r="S41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U41" s="6">
+      <c r="S41" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V41" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
+      <c r="W41" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1">
         <v>0</v>
       </c>
@@ -3317,13 +3311,15 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB41">
+        <v>0.0</v>
+      </c>
+      <c r="AC41">
         <v>-48000.0</v>
       </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41"/>
+      <c r="AE41"/>
     </row>
     <row r="42" spans="1:31">
       <c r="A42">
@@ -3368,22 +3364,18 @@
       <c r="R42" s="1">
         <v>100000</v>
       </c>
-      <c r="S42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U42" s="6">
+      <c r="S42" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V42" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
+      <c r="W42" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
@@ -3391,13 +3383,15 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB42">
+        <v>0.0</v>
+      </c>
+      <c r="AC42">
         <v>-48000.0</v>
       </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42"/>
+      <c r="AE42"/>
     </row>
     <row r="43" spans="1:31">
       <c r="A43">
@@ -3442,22 +3436,18 @@
       <c r="R43" s="1">
         <v>100000</v>
       </c>
-      <c r="S43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U43" s="6">
+      <c r="S43" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V43" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
+      <c r="W43" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1">
         <v>0</v>
       </c>
@@ -3465,13 +3455,15 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB43">
+        <v>0.0</v>
+      </c>
+      <c r="AC43">
         <v>-48000.0</v>
       </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43"/>
+      <c r="AE43"/>
     </row>
     <row r="44" spans="1:31">
       <c r="A44">
@@ -3516,22 +3508,18 @@
       <c r="R44" s="1">
         <v>100000</v>
       </c>
-      <c r="S44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U44" s="6">
+      <c r="S44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V44" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
+      <c r="W44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
@@ -3539,13 +3527,15 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB44">
+        <v>0.0</v>
+      </c>
+      <c r="AC44">
         <v>-48000.0</v>
       </c>
-      <c r="AC44" s="2"/>
-      <c r="AD44"/>
+      <c r="AE44"/>
     </row>
     <row r="45" spans="1:31">
       <c r="A45">
@@ -3590,22 +3580,18 @@
       <c r="R45" s="1">
         <v>100000</v>
       </c>
-      <c r="S45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U45" s="6">
+      <c r="S45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V45" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
+      <c r="W45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
@@ -3613,13 +3599,15 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB45">
+        <v>0.0</v>
+      </c>
+      <c r="AC45">
         <v>-48000.0</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45"/>
+      <c r="AE45"/>
     </row>
     <row r="46" spans="1:31">
       <c r="A46">
@@ -3664,22 +3652,18 @@
       <c r="R46" s="1">
         <v>100000</v>
       </c>
-      <c r="S46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U46" s="6">
+      <c r="S46" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V46" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
+      <c r="W46" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
@@ -3687,13 +3671,15 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB46">
+        <v>0.0</v>
+      </c>
+      <c r="AC46">
         <v>-48000.0</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46"/>
+      <c r="AE46"/>
     </row>
     <row r="47" spans="1:31">
       <c r="A47">
@@ -3738,22 +3724,18 @@
       <c r="R47" s="1">
         <v>100000</v>
       </c>
-      <c r="S47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U47" s="6">
+      <c r="S47" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V47" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
+      <c r="W47" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>0</v>
       </c>
@@ -3761,13 +3743,15 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB47">
+        <v>0.0</v>
+      </c>
+      <c r="AC47">
         <v>-48000.0</v>
       </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47"/>
+      <c r="AE47"/>
     </row>
     <row r="48" spans="1:31">
       <c r="A48">
@@ -3812,22 +3796,18 @@
       <c r="R48" s="1">
         <v>100000</v>
       </c>
-      <c r="S48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U48" s="6">
+      <c r="S48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V48" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
+      <c r="W48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1">
         <v>0</v>
       </c>
@@ -3835,13 +3815,15 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB48">
+        <v>0.0</v>
+      </c>
+      <c r="AC48">
         <v>-48000.0</v>
       </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48"/>
+      <c r="AE48"/>
     </row>
     <row r="49" spans="1:31">
       <c r="A49">
@@ -3886,22 +3868,18 @@
       <c r="R49" s="1">
         <v>100000</v>
       </c>
-      <c r="S49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U49" s="6">
+      <c r="S49" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V49" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="1">
-        <v>0</v>
-      </c>
+      <c r="W49" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1">
         <v>0</v>
       </c>
@@ -3909,13 +3887,15 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB49">
+        <v>0.0</v>
+      </c>
+      <c r="AC49">
         <v>-48000.0</v>
       </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49"/>
+      <c r="AE49"/>
     </row>
     <row r="50" spans="1:31">
       <c r="A50">
@@ -3960,22 +3940,18 @@
       <c r="R50" s="1">
         <v>100000</v>
       </c>
-      <c r="S50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U50" s="6">
+      <c r="S50" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V50" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
+      <c r="W50" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
@@ -3983,13 +3959,15 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB50">
+        <v>0.0</v>
+      </c>
+      <c r="AC50">
         <v>-48000.0</v>
       </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50"/>
+      <c r="AE50"/>
     </row>
     <row r="51" spans="1:31">
       <c r="A51">
@@ -4034,22 +4012,18 @@
       <c r="R51" s="1">
         <v>100000</v>
       </c>
-      <c r="S51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U51" s="6">
+      <c r="S51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V51" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
+      <c r="W51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1">
         <v>0</v>
       </c>
@@ -4057,13 +4031,15 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB51">
+        <v>0.0</v>
+      </c>
+      <c r="AC51">
         <v>-48000.0</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51"/>
+      <c r="AE51"/>
     </row>
     <row r="52" spans="1:31">
       <c r="A52">
@@ -4108,22 +4084,18 @@
       <c r="R52" s="1">
         <v>100000</v>
       </c>
-      <c r="S52" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U52" s="6">
+      <c r="S52" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V52" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="1">
-        <v>0</v>
-      </c>
+      <c r="W52" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1">
         <v>0</v>
       </c>
@@ -4131,13 +4103,15 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB52">
+        <v>0.0</v>
+      </c>
+      <c r="AC52">
         <v>-48000.0</v>
       </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52"/>
+      <c r="AE52"/>
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="3">
@@ -4182,22 +4156,18 @@
       <c r="R53" s="13">
         <v>100000</v>
       </c>
-      <c r="S53" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="T53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U53" s="13">
+      <c r="S53" s="13">
+        <v>100000</v>
+      </c>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13">
         <v>-49000.0</v>
       </c>
-      <c r="V53" s="13">
-        <v>100000</v>
-      </c>
-      <c r="W53" s="14"/>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
+      <c r="W53" s="13">
+        <v>100000</v>
+      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
@@ -4205,13 +4175,16 @@
         <v>0</v>
       </c>
       <c r="AA53" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" s="3">
         <v>-48000.0</v>
       </c>
-      <c r="AC53" s="14"/>
       <c r="AD53" s="3"/>
+      <c r="AE53"/>
     </row>
     <row r="54" spans="1:31">
       <c r="A54">
@@ -4256,22 +4229,18 @@
       <c r="R54" s="1">
         <v>100000</v>
       </c>
-      <c r="S54" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U54" s="6">
+      <c r="S54" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V54" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="1">
-        <v>0</v>
-      </c>
+      <c r="W54" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
@@ -4279,13 +4248,15 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB54">
+        <v>0.0</v>
+      </c>
+      <c r="AC54">
         <v>-48000.0</v>
       </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54"/>
+      <c r="AE54"/>
     </row>
     <row r="55" spans="1:31">
       <c r="A55">
@@ -4330,22 +4301,18 @@
       <c r="R55" s="1">
         <v>100000</v>
       </c>
-      <c r="S55" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U55" s="6">
+      <c r="S55" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V55" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="1">
-        <v>0</v>
-      </c>
+      <c r="W55" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
@@ -4353,13 +4320,15 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB55">
+        <v>0.0</v>
+      </c>
+      <c r="AC55">
         <v>-48000.0</v>
       </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55"/>
+      <c r="AE55"/>
     </row>
     <row r="56" spans="1:31">
       <c r="A56">
@@ -4404,22 +4373,18 @@
       <c r="R56" s="1">
         <v>100000</v>
       </c>
-      <c r="S56" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U56" s="6">
+      <c r="S56" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V56" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="1">
-        <v>0</v>
-      </c>
+      <c r="W56" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
@@ -4427,13 +4392,15 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB56">
+        <v>0.0</v>
+      </c>
+      <c r="AC56">
         <v>-48000.0</v>
       </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56"/>
+      <c r="AE56"/>
     </row>
     <row r="57" spans="1:31">
       <c r="A57" s="3">
@@ -4478,22 +4445,18 @@
       <c r="R57" s="13">
         <v>100000</v>
       </c>
-      <c r="S57" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="T57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U57" s="13">
+      <c r="S57" s="13">
+        <v>100000</v>
+      </c>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13">
         <v>-49000.0</v>
       </c>
-      <c r="V57" s="13">
-        <v>100000</v>
-      </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
+      <c r="W57" s="13">
+        <v>100000</v>
+      </c>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13">
         <v>0</v>
       </c>
@@ -4501,13 +4464,16 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>-48000.0</v>
       </c>
-      <c r="AC57" s="14"/>
       <c r="AD57" s="3"/>
+      <c r="AE57"/>
     </row>
     <row r="58" spans="1:31">
       <c r="A58">
@@ -4552,22 +4518,18 @@
       <c r="R58" s="1">
         <v>100000</v>
       </c>
-      <c r="S58" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U58" s="6">
+      <c r="S58" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V58" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="1">
-        <v>0</v>
-      </c>
+      <c r="W58" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
@@ -4575,13 +4537,15 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB58">
+        <v>0.0</v>
+      </c>
+      <c r="AC58">
         <v>-48000.0</v>
       </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58"/>
+      <c r="AE58"/>
     </row>
     <row r="59" spans="1:31">
       <c r="A59">
@@ -4626,22 +4590,18 @@
       <c r="R59" s="1">
         <v>100000</v>
       </c>
-      <c r="S59" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U59" s="6">
+      <c r="S59" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V59" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
+      <c r="W59" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1">
         <v>0</v>
       </c>
@@ -4649,13 +4609,15 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB59">
+        <v>0.0</v>
+      </c>
+      <c r="AC59">
         <v>-48000.0</v>
       </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59"/>
+      <c r="AE59"/>
     </row>
     <row r="60" spans="1:31">
       <c r="A60">
@@ -4700,22 +4662,18 @@
       <c r="R60" s="1">
         <v>100000</v>
       </c>
-      <c r="S60" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U60" s="6">
+      <c r="S60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V60" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="1">
-        <v>0</v>
-      </c>
+      <c r="W60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1">
         <v>0</v>
       </c>
@@ -4723,13 +4681,15 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB60">
+        <v>0.0</v>
+      </c>
+      <c r="AC60">
         <v>-48000.0</v>
       </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60"/>
+      <c r="AE60"/>
     </row>
     <row r="61" spans="1:31">
       <c r="A61">
@@ -4774,22 +4734,18 @@
       <c r="R61" s="1">
         <v>100000</v>
       </c>
-      <c r="S61" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U61" s="6">
+      <c r="S61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V61" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
+      <c r="W61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1">
         <v>0</v>
       </c>
@@ -4797,13 +4753,15 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB61">
+        <v>0.0</v>
+      </c>
+      <c r="AC61">
         <v>-48000.0</v>
       </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61"/>
+      <c r="AE61"/>
     </row>
     <row r="62" spans="1:31">
       <c r="A62">
@@ -4848,22 +4806,18 @@
       <c r="R62" s="1">
         <v>100000</v>
       </c>
-      <c r="S62" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U62" s="6">
+      <c r="S62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T62" s="1"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V62" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
+      <c r="W62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
@@ -4871,13 +4825,15 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB62">
+        <v>0.0</v>
+      </c>
+      <c r="AC62">
         <v>-48000.0</v>
       </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62"/>
+      <c r="AE62"/>
     </row>
     <row r="63" spans="1:31">
       <c r="A63">
@@ -4922,22 +4878,18 @@
       <c r="R63" s="1">
         <v>100000</v>
       </c>
-      <c r="S63" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U63" s="6">
+      <c r="S63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T63" s="1"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V63" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
+      <c r="W63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1">
         <v>0</v>
       </c>
@@ -4945,13 +4897,15 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB63">
+        <v>0.0</v>
+      </c>
+      <c r="AC63">
         <v>-48000.0</v>
       </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63"/>
+      <c r="AE63"/>
     </row>
     <row r="64" spans="1:31">
       <c r="A64">
@@ -4996,22 +4950,18 @@
       <c r="R64" s="1">
         <v>100000</v>
       </c>
-      <c r="S64" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U64" s="6">
+      <c r="S64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V64" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
+      <c r="W64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
@@ -5019,13 +4969,15 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB64">
+        <v>0.0</v>
+      </c>
+      <c r="AC64">
         <v>-48000.0</v>
       </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64"/>
+      <c r="AE64"/>
     </row>
     <row r="65" spans="1:31">
       <c r="A65">
@@ -5070,22 +5022,18 @@
       <c r="R65" s="1">
         <v>100000</v>
       </c>
-      <c r="S65" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U65" s="6">
+      <c r="S65" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T65" s="1"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V65" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
+      <c r="W65" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1">
         <v>0</v>
       </c>
@@ -5093,13 +5041,15 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB65">
+        <v>0.0</v>
+      </c>
+      <c r="AC65">
         <v>-48000.0</v>
       </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65"/>
+      <c r="AE65"/>
     </row>
     <row r="66" spans="1:31">
       <c r="A66">
@@ -5144,22 +5094,18 @@
       <c r="R66" s="1">
         <v>100000</v>
       </c>
-      <c r="S66" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U66" s="6">
+      <c r="S66" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T66" s="1"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V66" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
+      <c r="W66" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
@@ -5167,13 +5113,15 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB66">
+        <v>0.0</v>
+      </c>
+      <c r="AC66">
         <v>-48000.0</v>
       </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66"/>
+      <c r="AE66"/>
     </row>
     <row r="67" spans="1:31">
       <c r="A67">
@@ -5218,22 +5166,18 @@
       <c r="R67" s="1">
         <v>100000</v>
       </c>
-      <c r="S67" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U67" s="6">
+      <c r="S67" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T67" s="1"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V67" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
+      <c r="W67" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1">
         <v>0</v>
       </c>
@@ -5241,13 +5185,15 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB67">
+        <v>0.0</v>
+      </c>
+      <c r="AC67">
         <v>-48000.0</v>
       </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67"/>
+      <c r="AE67"/>
     </row>
     <row r="68" spans="1:31">
       <c r="A68">
@@ -5292,22 +5238,18 @@
       <c r="R68" s="1">
         <v>100000</v>
       </c>
-      <c r="S68" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U68" s="6">
+      <c r="S68" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T68" s="1"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V68" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
+      <c r="W68" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X68" s="1"/>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
@@ -5315,13 +5257,15 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB68">
+        <v>0.0</v>
+      </c>
+      <c r="AC68">
         <v>-48000.0</v>
       </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68"/>
+      <c r="AE68"/>
     </row>
     <row r="69" spans="1:31">
       <c r="A69">
@@ -5366,22 +5310,18 @@
       <c r="R69" s="1">
         <v>100000</v>
       </c>
-      <c r="S69" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U69" s="6">
+      <c r="S69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T69" s="1"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V69" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
+      <c r="W69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X69" s="1"/>
       <c r="Y69" s="1">
         <v>0</v>
       </c>
@@ -5389,13 +5329,15 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB69">
+        <v>0.0</v>
+      </c>
+      <c r="AC69">
         <v>-48000.0</v>
       </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69"/>
+      <c r="AE69"/>
     </row>
     <row r="70" spans="1:31">
       <c r="A70">
@@ -5440,22 +5382,18 @@
       <c r="R70" s="1">
         <v>100000</v>
       </c>
-      <c r="S70" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U70" s="6">
+      <c r="S70" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T70" s="1"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V70" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
+      <c r="W70" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
@@ -5463,13 +5401,15 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB70">
+        <v>0.0</v>
+      </c>
+      <c r="AC70">
         <v>-48000.0</v>
       </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70"/>
+      <c r="AE70"/>
     </row>
     <row r="71" spans="1:31">
       <c r="A71">
@@ -5514,22 +5454,18 @@
       <c r="R71" s="1">
         <v>100000</v>
       </c>
-      <c r="S71" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U71" s="6">
+      <c r="S71" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T71" s="1"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V71" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="1">
-        <v>0</v>
-      </c>
+      <c r="W71" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
@@ -5537,13 +5473,15 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB71">
+        <v>0.0</v>
+      </c>
+      <c r="AC71">
         <v>-48000.0</v>
       </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71"/>
+      <c r="AE71"/>
     </row>
     <row r="72" spans="1:31">
       <c r="A72" s="15">
@@ -5588,22 +5526,18 @@
       <c r="R72" s="5">
         <v>100000</v>
       </c>
-      <c r="S72" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="T72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="U72" s="5">
+      <c r="S72" s="5">
+        <v>100000</v>
+      </c>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5">
         <v>-49000.0</v>
       </c>
-      <c r="V72" s="5">
-        <v>100000</v>
-      </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="5">
-        <v>0</v>
-      </c>
+      <c r="W72" s="5">
+        <v>100000</v>
+      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
@@ -5611,13 +5545,16 @@
         <v>0</v>
       </c>
       <c r="AA72" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AC72" s="15">
         <v>-48000.0</v>
       </c>
-      <c r="AC72" s="16"/>
       <c r="AD72" s="15"/>
+      <c r="AE72"/>
     </row>
     <row r="73" spans="1:31">
       <c r="B73" s="1"/>
@@ -5637,15 +5574,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -5665,15 +5601,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AC74" s="2"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -5693,15 +5628,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -5721,15 +5655,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -5749,15 +5682,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="2"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -5777,15 +5709,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="2"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -5805,15 +5736,14 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -5833,15 +5763,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="2"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AC80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -5890,19 +5819,19 @@
     <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -5910,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -5922,7 +5851,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -5942,10 +5871,10 @@
       <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6008,10 +5937,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -6040,7 +5969,9 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
@@ -6077,33 +6008,35 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
       <c r="U6" s="6">
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6">
-        <v>0.0</v>
-      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6"/>
       <c r="AB6">
         <v>0.0</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6" t="s">
-        <v>41</v>
+      <c r="AC6">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -6141,33 +6074,35 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
       <c r="U7" s="6">
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7">
-        <v>0.0</v>
-      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7"/>
       <c r="AB7">
         <v>0.0</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" t="s">
-        <v>41</v>
+      <c r="AC7">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6205,33 +6140,35 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
       <c r="U8" s="6">
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8">
-        <v>0.0</v>
-      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8"/>
       <c r="AB8">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" t="s">
-        <v>41</v>
+      <c r="AC8">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6269,33 +6206,35 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
       <c r="U9" s="6">
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9">
-        <v>0.0</v>
-      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9"/>
       <c r="AB9">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" t="s">
-        <v>41</v>
+      <c r="AC9">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6333,33 +6272,35 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
       <c r="U10" s="6">
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10">
-        <v>0.0</v>
-      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10"/>
       <c r="AB10">
         <v>0.0</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10" t="s">
-        <v>41</v>
+      <c r="AC10">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6397,33 +6338,35 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
       <c r="U11" s="6">
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11">
-        <v>0.0</v>
-      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11"/>
       <c r="AB11">
         <v>0.0</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11" t="s">
-        <v>41</v>
+      <c r="AC11">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6461,33 +6404,35 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
       <c r="U12" s="6">
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12">
-        <v>0.0</v>
-      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12"/>
       <c r="AB12">
         <v>0.0</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" t="s">
-        <v>41</v>
+      <c r="AC12">
+        <v>0.0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6525,33 +6470,35 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
       <c r="U13" s="6">
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13">
-        <v>0.0</v>
-      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13"/>
       <c r="AB13">
         <v>0.0</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" t="s">
-        <v>41</v>
+      <c r="AC13">
+        <v>0.0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6589,33 +6536,35 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
       <c r="U14" s="6">
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14">
-        <v>0.0</v>
-      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14"/>
       <c r="AB14">
         <v>0.0</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14" t="s">
-        <v>41</v>
+      <c r="AC14">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6653,33 +6602,35 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
       <c r="U15" s="6">
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15">
-        <v>0.0</v>
-      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15"/>
       <c r="AB15">
         <v>0.0</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15" t="s">
-        <v>41</v>
+      <c r="AC15">
+        <v>0.0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6717,33 +6668,35 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="6">
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16">
-        <v>0.0</v>
-      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16"/>
       <c r="AB16">
         <v>0.0</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16" t="s">
-        <v>41</v>
+      <c r="AC16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6781,33 +6734,35 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
       <c r="U17" s="6">
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17">
-        <v>0.0</v>
-      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17"/>
       <c r="AB17">
         <v>0.0</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17" t="s">
-        <v>41</v>
+      <c r="AC17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -6845,33 +6800,35 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
       <c r="U18" s="6">
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18">
-        <v>0.0</v>
-      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18"/>
       <c r="AB18">
         <v>0.0</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18" t="s">
-        <v>41</v>
+      <c r="AC18">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -6909,33 +6866,35 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
       <c r="U19" s="6">
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19">
-        <v>0.0</v>
-      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19"/>
       <c r="AB19">
         <v>0.0</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19" t="s">
-        <v>41</v>
+      <c r="AC19">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -6973,33 +6932,35 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
       <c r="U20" s="6">
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20">
-        <v>0.0</v>
-      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20"/>
       <c r="AB20">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20" t="s">
-        <v>41</v>
+      <c r="AC20">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -7037,33 +6998,35 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
       <c r="U21" s="6">
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
-      <c r="Z21" s="1"/>
-      <c r="AA21">
-        <v>0.0</v>
-      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21"/>
       <c r="AB21">
         <v>0.0</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21" t="s">
-        <v>41</v>
+      <c r="AC21">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -7101,33 +7064,35 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
       <c r="U22" s="6">
         <v>0.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
       <c r="Y22" s="1">
         <v>0</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22">
-        <v>0.0</v>
-      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22"/>
       <c r="AB22">
         <v>0.0</v>
       </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22" t="s">
-        <v>41</v>
+      <c r="AC22">
+        <v>0.0</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -7165,33 +7130,35 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
       <c r="U23" s="6">
         <v>0.0</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
       <c r="Y23" s="1">
         <v>0</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23">
-        <v>0.0</v>
-      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23"/>
       <c r="AB23">
         <v>0.0</v>
       </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23" t="s">
-        <v>41</v>
+      <c r="AC23">
+        <v>0.0</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -7229,33 +7196,35 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
       <c r="U24" s="6">
         <v>0.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
       <c r="Y24" s="1">
         <v>0</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24">
-        <v>0.0</v>
-      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24"/>
       <c r="AB24">
         <v>0.0</v>
       </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24" t="s">
-        <v>41</v>
+      <c r="AC24">
+        <v>0.0</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -7293,33 +7262,35 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
       <c r="U25" s="6">
         <v>0.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
       <c r="Y25" s="1">
         <v>0</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25">
-        <v>0.0</v>
-      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25"/>
       <c r="AB25">
         <v>0.0</v>
       </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25" t="s">
-        <v>41</v>
+      <c r="AC25">
+        <v>0.0</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -7357,33 +7328,35 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
       <c r="U26" s="6">
         <v>0.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
       <c r="Y26" s="1">
         <v>0</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26">
-        <v>0.0</v>
-      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26"/>
       <c r="AB26">
         <v>0.0</v>
       </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26" t="s">
-        <v>41</v>
+      <c r="AC26">
+        <v>0.0</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -7421,33 +7394,35 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
       <c r="U27" s="6">
         <v>0.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
       <c r="Y27" s="1">
         <v>0</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27">
-        <v>0.0</v>
-      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27"/>
       <c r="AB27">
         <v>0.0</v>
       </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27" t="s">
-        <v>41</v>
+      <c r="AC27">
+        <v>0.0</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -7485,33 +7460,35 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
       <c r="U28" s="6">
         <v>0.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
       <c r="Y28" s="1">
         <v>0</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28">
-        <v>0.0</v>
-      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28"/>
       <c r="AB28">
         <v>0.0</v>
       </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28" t="s">
-        <v>41</v>
+      <c r="AC28">
+        <v>0.0</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -7549,33 +7526,35 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
       <c r="U29" s="6">
         <v>0.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
       <c r="Y29" s="1">
         <v>0</v>
       </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29">
-        <v>0.0</v>
-      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29"/>
       <c r="AB29">
         <v>0.0</v>
       </c>
-      <c r="AC29" s="2"/>
-      <c r="AD29" t="s">
-        <v>41</v>
+      <c r="AC29">
+        <v>0.0</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -7613,33 +7592,35 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="6">
         <v>0.0</v>
       </c>
       <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
       <c r="Y30" s="1">
         <v>0</v>
       </c>
-      <c r="Z30" s="1"/>
-      <c r="AA30">
-        <v>0.0</v>
-      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30"/>
       <c r="AB30">
         <v>0.0</v>
       </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30" t="s">
-        <v>41</v>
+      <c r="AC30">
+        <v>0.0</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -7677,33 +7658,35 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1"/>
       <c r="U31" s="6">
         <v>0.0</v>
       </c>
       <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
       <c r="Y31" s="1">
         <v>0</v>
       </c>
-      <c r="Z31" s="1"/>
-      <c r="AA31">
-        <v>0.0</v>
-      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31"/>
       <c r="AB31">
         <v>0.0</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" t="s">
-        <v>41</v>
+      <c r="AC31">
+        <v>0.0</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -7741,33 +7724,35 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="6">
         <v>0.0</v>
       </c>
       <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
       <c r="Y32" s="1">
         <v>0</v>
       </c>
-      <c r="Z32" s="1"/>
-      <c r="AA32">
-        <v>0.0</v>
-      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32"/>
       <c r="AB32">
         <v>0.0</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32" t="s">
-        <v>41</v>
+      <c r="AC32">
+        <v>0.0</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -7805,33 +7790,35 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
       <c r="U33" s="6">
         <v>0.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
       <c r="Y33" s="1">
         <v>0</v>
       </c>
-      <c r="Z33" s="1"/>
-      <c r="AA33">
-        <v>0.0</v>
-      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33"/>
       <c r="AB33">
         <v>0.0</v>
       </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" t="s">
-        <v>41</v>
+      <c r="AC33">
+        <v>0.0</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -7869,33 +7856,35 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
       <c r="U34" s="6">
         <v>0.0</v>
       </c>
       <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
       <c r="Y34" s="1">
         <v>0</v>
       </c>
-      <c r="Z34" s="1"/>
-      <c r="AA34">
-        <v>0.0</v>
-      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34"/>
       <c r="AB34">
         <v>0.0</v>
       </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34" t="s">
-        <v>41</v>
+      <c r="AC34">
+        <v>0.0</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -7933,33 +7922,35 @@
       <c r="R35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
       <c r="U35" s="6">
         <v>0.0</v>
       </c>
       <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
       <c r="Y35" s="1">
         <v>0</v>
       </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35">
-        <v>0.0</v>
-      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35"/>
       <c r="AB35">
         <v>0.0</v>
       </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35" t="s">
-        <v>41</v>
+      <c r="AC35">
+        <v>0.0</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -7997,33 +7988,35 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
       <c r="U36" s="6">
         <v>0.0</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
       <c r="Y36" s="1">
         <v>0</v>
       </c>
-      <c r="Z36" s="1"/>
-      <c r="AA36">
-        <v>0.0</v>
-      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36"/>
       <c r="AB36">
         <v>0.0</v>
       </c>
-      <c r="AC36" s="2"/>
-      <c r="AD36" t="s">
-        <v>41</v>
+      <c r="AC36">
+        <v>0.0</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -8061,33 +8054,35 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
       <c r="U37" s="6">
         <v>0.0</v>
       </c>
       <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
       <c r="Y37" s="1">
         <v>0</v>
       </c>
-      <c r="Z37" s="1"/>
-      <c r="AA37">
-        <v>0.0</v>
-      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37"/>
       <c r="AB37">
         <v>0.0</v>
       </c>
-      <c r="AC37" s="2"/>
-      <c r="AD37" t="s">
-        <v>41</v>
+      <c r="AC37">
+        <v>0.0</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -8125,35 +8120,36 @@
       <c r="R38" s="8">
         <v>100000</v>
       </c>
-      <c r="S38" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T38" s="8">
+      <c r="S38" s="8">
+        <v>100000</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8">
         <v>1000.0</v>
       </c>
-      <c r="U38" s="8">
+      <c r="V38" s="8">
         <v>-49000.0</v>
       </c>
-      <c r="V38" s="8">
-        <v>100000</v>
-      </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="8">
-        <v>0</v>
-      </c>
+      <c r="W38" s="8">
+        <v>100000</v>
+      </c>
+      <c r="X38" s="8"/>
       <c r="Y38" s="8">
         <v>0</v>
       </c>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="7">
-        <v>0.0</v>
-      </c>
+      <c r="Z38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="7"/>
       <c r="AB38" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="7">
         <v>-48000.0</v>
       </c>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="7" t="s">
-        <v>42</v>
+      <c r="AD38" s="7"/>
+      <c r="AE38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -8191,35 +8187,35 @@
       <c r="R39" s="1">
         <v>100000</v>
       </c>
-      <c r="S39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T39" s="1">
+      <c r="S39" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U39" s="6">
+      <c r="V39" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V39" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="1">
-        <v>0</v>
-      </c>
+      <c r="W39" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1">
         <v>0</v>
       </c>
-      <c r="Z39" s="1"/>
-      <c r="AA39">
-        <v>0.0</v>
-      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39"/>
       <c r="AB39">
+        <v>0.0</v>
+      </c>
+      <c r="AC39">
         <v>-48000.0</v>
       </c>
-      <c r="AC39" s="2"/>
-      <c r="AD39" t="s">
-        <v>43</v>
+      <c r="AE39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -8257,35 +8253,36 @@
       <c r="R40" s="11">
         <v>100000</v>
       </c>
-      <c r="S40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T40" s="11">
+      <c r="S40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11">
         <v>1000.0</v>
       </c>
-      <c r="U40" s="11">
+      <c r="V40" s="11">
         <v>-49000.0</v>
       </c>
-      <c r="V40" s="11">
-        <v>100000</v>
-      </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="11">
-        <v>0</v>
-      </c>
+      <c r="W40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="10">
-        <v>0.0</v>
-      </c>
+      <c r="Z40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="10"/>
       <c r="AB40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>-48000.0</v>
       </c>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="10" t="s">
-        <v>43</v>
+      <c r="AD40" s="10"/>
+      <c r="AE40" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -8323,35 +8320,35 @@
       <c r="R41" s="1">
         <v>100000</v>
       </c>
-      <c r="S41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T41" s="1">
+      <c r="S41" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U41" s="6">
+      <c r="V41" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V41" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
+      <c r="W41" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1">
         <v>0</v>
       </c>
-      <c r="Z41" s="1"/>
-      <c r="AA41">
-        <v>0.0</v>
-      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41"/>
       <c r="AB41">
+        <v>0.0</v>
+      </c>
+      <c r="AC41">
         <v>-48000.0</v>
       </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41" t="s">
-        <v>43</v>
+      <c r="AE41" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -8389,35 +8386,35 @@
       <c r="R42" s="1">
         <v>100000</v>
       </c>
-      <c r="S42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T42" s="1">
+      <c r="S42" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U42" s="6">
+      <c r="V42" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V42" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
+      <c r="W42" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
-      <c r="Z42" s="1"/>
-      <c r="AA42">
-        <v>0.0</v>
-      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42"/>
       <c r="AB42">
+        <v>0.0</v>
+      </c>
+      <c r="AC42">
         <v>-48000.0</v>
       </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42" t="s">
-        <v>43</v>
+      <c r="AE42" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -8455,35 +8452,35 @@
       <c r="R43" s="1">
         <v>100000</v>
       </c>
-      <c r="S43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T43" s="1">
+      <c r="S43" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U43" s="6">
+      <c r="V43" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V43" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
+      <c r="W43" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1">
         <v>0</v>
       </c>
-      <c r="Z43" s="1"/>
-      <c r="AA43">
-        <v>0.0</v>
-      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43"/>
       <c r="AB43">
+        <v>0.0</v>
+      </c>
+      <c r="AC43">
         <v>-48000.0</v>
       </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43" t="s">
-        <v>43</v>
+      <c r="AE43" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -8521,35 +8518,35 @@
       <c r="R44" s="1">
         <v>100000</v>
       </c>
-      <c r="S44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T44" s="1">
+      <c r="S44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U44" s="6">
+      <c r="V44" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V44" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
+      <c r="W44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
-      <c r="Z44" s="1"/>
-      <c r="AA44">
-        <v>0.0</v>
-      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44"/>
       <c r="AB44">
+        <v>0.0</v>
+      </c>
+      <c r="AC44">
         <v>-48000.0</v>
       </c>
-      <c r="AC44" s="2"/>
-      <c r="AD44" t="s">
-        <v>43</v>
+      <c r="AE44" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -8587,35 +8584,35 @@
       <c r="R45" s="1">
         <v>100000</v>
       </c>
-      <c r="S45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T45" s="1">
+      <c r="S45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U45" s="6">
+      <c r="V45" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V45" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
+      <c r="W45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
-      <c r="Z45" s="1"/>
-      <c r="AA45">
-        <v>0.0</v>
-      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45"/>
       <c r="AB45">
+        <v>0.0</v>
+      </c>
+      <c r="AC45">
         <v>-48000.0</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45" t="s">
-        <v>43</v>
+      <c r="AE45" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8653,35 +8650,35 @@
       <c r="R46" s="1">
         <v>100000</v>
       </c>
-      <c r="S46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T46" s="1">
+      <c r="S46" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U46" s="6">
+      <c r="V46" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V46" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
+      <c r="W46" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
-      <c r="Z46" s="1"/>
-      <c r="AA46">
-        <v>0.0</v>
-      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46"/>
       <c r="AB46">
+        <v>0.0</v>
+      </c>
+      <c r="AC46">
         <v>-48000.0</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46" t="s">
-        <v>43</v>
+      <c r="AE46" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -8719,35 +8716,35 @@
       <c r="R47" s="1">
         <v>100000</v>
       </c>
-      <c r="S47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T47" s="1">
+      <c r="S47" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U47" s="6">
+      <c r="V47" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V47" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
+      <c r="W47" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>0</v>
       </c>
-      <c r="Z47" s="1"/>
-      <c r="AA47">
-        <v>0.0</v>
-      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47"/>
       <c r="AB47">
+        <v>0.0</v>
+      </c>
+      <c r="AC47">
         <v>-48000.0</v>
       </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47" t="s">
-        <v>43</v>
+      <c r="AE47" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -8785,35 +8782,35 @@
       <c r="R48" s="1">
         <v>100000</v>
       </c>
-      <c r="S48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T48" s="1">
+      <c r="S48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U48" s="6">
+      <c r="V48" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V48" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
+      <c r="W48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1">
         <v>0</v>
       </c>
-      <c r="Z48" s="1"/>
-      <c r="AA48">
-        <v>0.0</v>
-      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48"/>
       <c r="AB48">
+        <v>0.0</v>
+      </c>
+      <c r="AC48">
         <v>-48000.0</v>
       </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48" t="s">
-        <v>43</v>
+      <c r="AE48" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -8851,35 +8848,35 @@
       <c r="R49" s="1">
         <v>100000</v>
       </c>
-      <c r="S49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T49" s="1">
+      <c r="S49" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U49" s="6">
+      <c r="V49" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V49" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="1">
-        <v>0</v>
-      </c>
+      <c r="W49" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1">
         <v>0</v>
       </c>
-      <c r="Z49" s="1"/>
-      <c r="AA49">
-        <v>0.0</v>
-      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49"/>
       <c r="AB49">
+        <v>0.0</v>
+      </c>
+      <c r="AC49">
         <v>-48000.0</v>
       </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49" t="s">
-        <v>43</v>
+      <c r="AE49" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -8917,35 +8914,35 @@
       <c r="R50" s="1">
         <v>100000</v>
       </c>
-      <c r="S50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T50" s="1">
+      <c r="S50" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U50" s="6">
+      <c r="V50" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V50" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
+      <c r="W50" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
-      <c r="Z50" s="1"/>
-      <c r="AA50">
-        <v>0.0</v>
-      </c>
+      <c r="Z50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50"/>
       <c r="AB50">
+        <v>0.0</v>
+      </c>
+      <c r="AC50">
         <v>-48000.0</v>
       </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50" t="s">
-        <v>43</v>
+      <c r="AE50" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -8983,35 +8980,35 @@
       <c r="R51" s="1">
         <v>100000</v>
       </c>
-      <c r="S51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T51" s="1">
+      <c r="S51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U51" s="6">
+      <c r="V51" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V51" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
+      <c r="W51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1">
         <v>0</v>
       </c>
-      <c r="Z51" s="1"/>
-      <c r="AA51">
-        <v>0.0</v>
-      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51"/>
       <c r="AB51">
+        <v>0.0</v>
+      </c>
+      <c r="AC51">
         <v>-48000.0</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51" t="s">
-        <v>43</v>
+      <c r="AE51" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -9049,35 +9046,35 @@
       <c r="R52" s="1">
         <v>100000</v>
       </c>
-      <c r="S52" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T52" s="1">
+      <c r="S52" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U52" s="6">
+      <c r="V52" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V52" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="1">
-        <v>0</v>
-      </c>
+      <c r="W52" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1">
         <v>0</v>
       </c>
-      <c r="Z52" s="1"/>
-      <c r="AA52">
-        <v>0.0</v>
-      </c>
+      <c r="Z52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52"/>
       <c r="AB52">
+        <v>0.0</v>
+      </c>
+      <c r="AC52">
         <v>-48000.0</v>
       </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52" t="s">
-        <v>43</v>
+      <c r="AE52" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -9115,35 +9112,36 @@
       <c r="R53" s="13">
         <v>100000</v>
       </c>
-      <c r="S53" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="T53" s="13">
+      <c r="S53" s="13">
+        <v>100000</v>
+      </c>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13">
         <v>1000.0</v>
       </c>
-      <c r="U53" s="13">
+      <c r="V53" s="13">
         <v>-49000.0</v>
       </c>
-      <c r="V53" s="13">
-        <v>100000</v>
-      </c>
-      <c r="W53" s="14"/>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
+      <c r="W53" s="13">
+        <v>100000</v>
+      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="Z53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3"/>
       <c r="AB53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" s="3">
         <v>-48000.0</v>
       </c>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="3" t="s">
-        <v>43</v>
+      <c r="AD53" s="3"/>
+      <c r="AE53" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -9181,35 +9179,35 @@
       <c r="R54" s="1">
         <v>100000</v>
       </c>
-      <c r="S54" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T54" s="1">
+      <c r="S54" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U54" s="6">
+      <c r="V54" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V54" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="1">
-        <v>0</v>
-      </c>
+      <c r="W54" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
-      <c r="Z54" s="1"/>
-      <c r="AA54">
-        <v>0.0</v>
-      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54"/>
       <c r="AB54">
+        <v>0.0</v>
+      </c>
+      <c r="AC54">
         <v>-48000.0</v>
       </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54" t="s">
-        <v>43</v>
+      <c r="AE54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9247,35 +9245,35 @@
       <c r="R55" s="1">
         <v>100000</v>
       </c>
-      <c r="S55" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T55" s="1">
+      <c r="S55" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U55" s="6">
+      <c r="V55" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V55" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="1">
-        <v>0</v>
-      </c>
+      <c r="W55" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
-      <c r="Z55" s="1"/>
-      <c r="AA55">
-        <v>0.0</v>
-      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55"/>
       <c r="AB55">
+        <v>0.0</v>
+      </c>
+      <c r="AC55">
         <v>-48000.0</v>
       </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55" t="s">
-        <v>43</v>
+      <c r="AE55" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9313,35 +9311,35 @@
       <c r="R56" s="1">
         <v>100000</v>
       </c>
-      <c r="S56" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T56" s="1">
+      <c r="S56" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U56" s="6">
+      <c r="V56" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V56" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="1">
-        <v>0</v>
-      </c>
+      <c r="W56" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
-      <c r="Z56" s="1"/>
-      <c r="AA56">
-        <v>0.0</v>
-      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56"/>
       <c r="AB56">
+        <v>0.0</v>
+      </c>
+      <c r="AC56">
         <v>-48000.0</v>
       </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56" t="s">
-        <v>43</v>
+      <c r="AE56" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9379,35 +9377,36 @@
       <c r="R57" s="13">
         <v>100000</v>
       </c>
-      <c r="S57" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="T57" s="13">
+      <c r="S57" s="13">
+        <v>100000</v>
+      </c>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13">
         <v>1000.0</v>
       </c>
-      <c r="U57" s="13">
+      <c r="V57" s="13">
         <v>-49000.0</v>
       </c>
-      <c r="V57" s="13">
-        <v>100000</v>
-      </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
+      <c r="W57" s="13">
+        <v>100000</v>
+      </c>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13">
         <v>0</v>
       </c>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="Z57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3"/>
       <c r="AB57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>-48000.0</v>
       </c>
-      <c r="AC57" s="14"/>
-      <c r="AD57" s="3" t="s">
-        <v>43</v>
+      <c r="AD57" s="3"/>
+      <c r="AE57" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9445,35 +9444,35 @@
       <c r="R58" s="1">
         <v>100000</v>
       </c>
-      <c r="S58" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T58" s="1">
+      <c r="S58" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U58" s="6">
+      <c r="V58" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V58" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="1">
-        <v>0</v>
-      </c>
+      <c r="W58" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
-      <c r="Z58" s="1"/>
-      <c r="AA58">
-        <v>0.0</v>
-      </c>
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58"/>
       <c r="AB58">
+        <v>0.0</v>
+      </c>
+      <c r="AC58">
         <v>-48000.0</v>
       </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58" t="s">
-        <v>43</v>
+      <c r="AE58" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9511,35 +9510,35 @@
       <c r="R59" s="1">
         <v>100000</v>
       </c>
-      <c r="S59" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T59" s="1">
+      <c r="S59" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U59" s="6">
+      <c r="V59" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V59" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
+      <c r="W59" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1">
         <v>0</v>
       </c>
-      <c r="Z59" s="1"/>
-      <c r="AA59">
-        <v>0.0</v>
-      </c>
+      <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59"/>
       <c r="AB59">
+        <v>0.0</v>
+      </c>
+      <c r="AC59">
         <v>-48000.0</v>
       </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59" t="s">
-        <v>43</v>
+      <c r="AE59" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9577,35 +9576,35 @@
       <c r="R60" s="1">
         <v>100000</v>
       </c>
-      <c r="S60" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T60" s="1">
+      <c r="S60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U60" s="6">
+      <c r="V60" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V60" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="1">
-        <v>0</v>
-      </c>
+      <c r="W60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1">
         <v>0</v>
       </c>
-      <c r="Z60" s="1"/>
-      <c r="AA60">
-        <v>0.0</v>
-      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60"/>
       <c r="AB60">
+        <v>0.0</v>
+      </c>
+      <c r="AC60">
         <v>-48000.0</v>
       </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60" t="s">
-        <v>43</v>
+      <c r="AE60" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9643,35 +9642,35 @@
       <c r="R61" s="1">
         <v>100000</v>
       </c>
-      <c r="S61" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T61" s="1">
+      <c r="S61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U61" s="6">
+      <c r="V61" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V61" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
+      <c r="W61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1">
         <v>0</v>
       </c>
-      <c r="Z61" s="1"/>
-      <c r="AA61">
-        <v>0.0</v>
-      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61"/>
       <c r="AB61">
+        <v>0.0</v>
+      </c>
+      <c r="AC61">
         <v>-48000.0</v>
       </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61" t="s">
-        <v>43</v>
+      <c r="AE61" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -9709,35 +9708,35 @@
       <c r="R62" s="1">
         <v>100000</v>
       </c>
-      <c r="S62" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T62" s="1">
+      <c r="S62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T62" s="1"/>
+      <c r="U62" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U62" s="6">
+      <c r="V62" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V62" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
+      <c r="W62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
-      <c r="Z62" s="1"/>
-      <c r="AA62">
-        <v>0.0</v>
-      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62"/>
       <c r="AB62">
+        <v>0.0</v>
+      </c>
+      <c r="AC62">
         <v>-48000.0</v>
       </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62" t="s">
-        <v>43</v>
+      <c r="AE62" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -9775,35 +9774,35 @@
       <c r="R63" s="1">
         <v>100000</v>
       </c>
-      <c r="S63" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T63" s="1">
+      <c r="S63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T63" s="1"/>
+      <c r="U63" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U63" s="6">
+      <c r="V63" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V63" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
+      <c r="W63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1">
         <v>0</v>
       </c>
-      <c r="Z63" s="1"/>
-      <c r="AA63">
-        <v>0.0</v>
-      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63"/>
       <c r="AB63">
+        <v>0.0</v>
+      </c>
+      <c r="AC63">
         <v>-48000.0</v>
       </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63" t="s">
-        <v>43</v>
+      <c r="AE63" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -9841,35 +9840,35 @@
       <c r="R64" s="1">
         <v>100000</v>
       </c>
-      <c r="S64" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T64" s="1">
+      <c r="S64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U64" s="6">
+      <c r="V64" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V64" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
+      <c r="W64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
-      <c r="Z64" s="1"/>
-      <c r="AA64">
-        <v>0.0</v>
-      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64"/>
       <c r="AB64">
+        <v>0.0</v>
+      </c>
+      <c r="AC64">
         <v>-48000.0</v>
       </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64" t="s">
-        <v>43</v>
+      <c r="AE64" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -9907,35 +9906,35 @@
       <c r="R65" s="1">
         <v>100000</v>
       </c>
-      <c r="S65" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T65" s="1">
+      <c r="S65" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T65" s="1"/>
+      <c r="U65" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U65" s="6">
+      <c r="V65" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V65" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
+      <c r="W65" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1">
         <v>0</v>
       </c>
-      <c r="Z65" s="1"/>
-      <c r="AA65">
-        <v>0.0</v>
-      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65"/>
       <c r="AB65">
+        <v>0.0</v>
+      </c>
+      <c r="AC65">
         <v>-48000.0</v>
       </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65" t="s">
-        <v>43</v>
+      <c r="AE65" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -9973,35 +9972,35 @@
       <c r="R66" s="1">
         <v>100000</v>
       </c>
-      <c r="S66" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T66" s="1">
+      <c r="S66" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T66" s="1"/>
+      <c r="U66" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U66" s="6">
+      <c r="V66" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V66" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
+      <c r="W66" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
-      <c r="Z66" s="1"/>
-      <c r="AA66">
-        <v>0.0</v>
-      </c>
+      <c r="Z66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA66"/>
       <c r="AB66">
+        <v>0.0</v>
+      </c>
+      <c r="AC66">
         <v>-48000.0</v>
       </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66" t="s">
-        <v>43</v>
+      <c r="AE66" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10039,35 +10038,35 @@
       <c r="R67" s="1">
         <v>100000</v>
       </c>
-      <c r="S67" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T67" s="1">
+      <c r="S67" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T67" s="1"/>
+      <c r="U67" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U67" s="6">
+      <c r="V67" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V67" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
+      <c r="W67" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1">
         <v>0</v>
       </c>
-      <c r="Z67" s="1"/>
-      <c r="AA67">
-        <v>0.0</v>
-      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67"/>
       <c r="AB67">
+        <v>0.0</v>
+      </c>
+      <c r="AC67">
         <v>-48000.0</v>
       </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67" t="s">
-        <v>43</v>
+      <c r="AE67" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10105,35 +10104,35 @@
       <c r="R68" s="1">
         <v>100000</v>
       </c>
-      <c r="S68" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T68" s="1">
+      <c r="S68" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T68" s="1"/>
+      <c r="U68" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U68" s="6">
+      <c r="V68" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V68" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
+      <c r="W68" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X68" s="1"/>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
-      <c r="Z68" s="1"/>
-      <c r="AA68">
-        <v>0.0</v>
-      </c>
+      <c r="Z68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA68"/>
       <c r="AB68">
+        <v>0.0</v>
+      </c>
+      <c r="AC68">
         <v>-48000.0</v>
       </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68" t="s">
-        <v>43</v>
+      <c r="AE68" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10171,35 +10170,35 @@
       <c r="R69" s="1">
         <v>100000</v>
       </c>
-      <c r="S69" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T69" s="1">
+      <c r="S69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T69" s="1"/>
+      <c r="U69" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U69" s="6">
+      <c r="V69" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V69" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
+      <c r="W69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X69" s="1"/>
       <c r="Y69" s="1">
         <v>0</v>
       </c>
-      <c r="Z69" s="1"/>
-      <c r="AA69">
-        <v>0.0</v>
-      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69"/>
       <c r="AB69">
+        <v>0.0</v>
+      </c>
+      <c r="AC69">
         <v>-48000.0</v>
       </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69" t="s">
-        <v>43</v>
+      <c r="AE69" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10237,35 +10236,35 @@
       <c r="R70" s="1">
         <v>100000</v>
       </c>
-      <c r="S70" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T70" s="1">
+      <c r="S70" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T70" s="1"/>
+      <c r="U70" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U70" s="6">
+      <c r="V70" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V70" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
+      <c r="W70" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
-      <c r="Z70" s="1"/>
-      <c r="AA70">
-        <v>0.0</v>
-      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70"/>
       <c r="AB70">
+        <v>0.0</v>
+      </c>
+      <c r="AC70">
         <v>-48000.0</v>
       </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70" t="s">
-        <v>43</v>
+      <c r="AE70" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10303,35 +10302,35 @@
       <c r="R71" s="1">
         <v>100000</v>
       </c>
-      <c r="S71" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T71" s="1">
+      <c r="S71" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T71" s="1"/>
+      <c r="U71" s="6">
         <v>1000.0</v>
       </c>
-      <c r="U71" s="6">
+      <c r="V71" s="1">
         <v>-49000.0</v>
       </c>
-      <c r="V71" s="1">
-        <v>100000</v>
-      </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="1">
-        <v>0</v>
-      </c>
+      <c r="W71" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
-      <c r="Z71" s="1"/>
-      <c r="AA71">
-        <v>0.0</v>
-      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71"/>
       <c r="AB71">
+        <v>0.0</v>
+      </c>
+      <c r="AC71">
         <v>-48000.0</v>
       </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71" t="s">
-        <v>43</v>
+      <c r="AE71" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10369,35 +10368,36 @@
       <c r="R72" s="5">
         <v>100000</v>
       </c>
-      <c r="S72" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="T72" s="5">
+      <c r="S72" s="5">
+        <v>100000</v>
+      </c>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5">
         <v>1000.0</v>
       </c>
-      <c r="U72" s="5">
+      <c r="V72" s="5">
         <v>-49000.0</v>
       </c>
-      <c r="V72" s="5">
-        <v>100000</v>
-      </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="5">
-        <v>0</v>
-      </c>
+      <c r="W72" s="5">
+        <v>100000</v>
+      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="Z72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="15"/>
       <c r="AB72" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AC72" s="15">
         <v>-48000.0</v>
       </c>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="15" t="s">
-        <v>43</v>
+      <c r="AD72" s="15"/>
+      <c r="AE72" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -10418,15 +10418,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -10446,15 +10445,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AC74" s="2"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -10474,15 +10472,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -10502,15 +10499,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -10530,15 +10526,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="2"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -10558,15 +10553,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="2"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -10586,15 +10580,14 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -10614,15 +10607,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="2"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AC80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/tests/Feature/config/car_zero.xlsx
+++ b/tests/Feature/config/car_zero.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>private</t>
   </si>
@@ -112,7 +112,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -148,13 +148,16 @@
     <t>car</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t>0Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndverditap Asset rule Using current amount: 100000 * 1</t>
+    <t>Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndverditap Asset rule: Using current amount: 200000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 100000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 200000 * 1</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -808,13 +811,13 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -884,13 +887,13 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -960,13 +963,13 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1036,13 +1039,13 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1112,13 +1115,13 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1188,13 +1191,13 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1264,13 +1267,13 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1340,13 +1343,13 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -1416,13 +1419,13 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -1492,13 +1495,13 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -1568,13 +1571,13 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -1644,13 +1647,13 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -1720,13 +1723,13 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -1796,13 +1799,13 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -1872,13 +1875,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -1948,13 +1951,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -2024,13 +2027,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -2100,13 +2103,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2176,13 +2179,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -2252,13 +2255,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -2328,13 +2331,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -2404,13 +2407,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -2480,13 +2483,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -2556,13 +2559,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -2632,13 +2635,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -2708,13 +2711,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -2784,13 +2787,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -2860,13 +2863,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -2936,13 +2939,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -3012,13 +3015,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -3088,13 +3091,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -3164,13 +3167,13 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -3190,7 +3193,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -3215,20 +3218,20 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
@@ -3236,17 +3239,17 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -3266,7 +3269,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
@@ -3291,20 +3294,20 @@
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S39" s="8">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U39" s="8">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="8">
@@ -3312,17 +3315,17 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0</v>
@@ -3343,7 +3346,7 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3368,20 +3371,20 @@
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S40" s="11">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
@@ -3389,17 +3392,17 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0</v>
@@ -3420,7 +3423,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3445,20 +3448,20 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S41" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
@@ -3466,17 +3469,17 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -3496,7 +3499,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3521,20 +3524,20 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S42" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
@@ -3542,17 +3545,17 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -3572,7 +3575,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -3597,20 +3600,20 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S43" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
@@ -3618,17 +3621,17 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -3648,7 +3651,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -3673,20 +3676,20 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S44" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
@@ -3694,17 +3697,17 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -3724,7 +3727,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -3749,20 +3752,20 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S45" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
@@ -3770,17 +3773,17 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -3800,7 +3803,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -3825,20 +3828,20 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S46" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
@@ -3846,17 +3849,17 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -3876,7 +3879,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -3901,20 +3904,20 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S47" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
@@ -3922,17 +3925,17 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -3952,7 +3955,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -3977,20 +3980,20 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S48" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
@@ -3998,17 +4001,17 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0</v>
@@ -4028,7 +4031,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -4053,20 +4056,20 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S49" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
@@ -4074,17 +4077,17 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -4104,7 +4107,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -4129,20 +4132,20 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S50" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
@@ -4150,17 +4153,17 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -4180,7 +4183,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4205,20 +4208,20 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S51" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
@@ -4226,17 +4229,17 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -4256,7 +4259,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4281,20 +4284,20 @@
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S52" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
@@ -4302,17 +4305,17 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0</v>
@@ -4332,7 +4335,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4357,20 +4360,20 @@
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S53" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
@@ -4378,17 +4381,17 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
@@ -4409,7 +4412,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4434,20 +4437,20 @@
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S54" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
@@ -4455,17 +4458,17 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -4485,7 +4488,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4510,20 +4513,20 @@
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S55" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
@@ -4531,17 +4534,17 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -4561,7 +4564,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4586,20 +4589,20 @@
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S56" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
@@ -4607,17 +4610,17 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -4637,7 +4640,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -4662,20 +4665,20 @@
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S57" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
@@ -4683,17 +4686,17 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
@@ -4714,7 +4717,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -4739,20 +4742,20 @@
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S58" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
@@ -4760,17 +4763,17 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -4790,7 +4793,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -4815,20 +4818,20 @@
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S59" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
@@ -4836,17 +4839,17 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -4866,7 +4869,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -4891,20 +4894,20 @@
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S60" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
@@ -4912,17 +4915,17 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -4942,7 +4945,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -4967,20 +4970,20 @@
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S61" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
@@ -4988,17 +4991,17 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -5018,7 +5021,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -5043,20 +5046,20 @@
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S62" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
@@ -5064,17 +5067,17 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -5094,7 +5097,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -5119,20 +5122,20 @@
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S63" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
@@ -5140,17 +5143,17 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -5170,7 +5173,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5195,20 +5198,20 @@
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S64" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
@@ -5216,17 +5219,17 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -5246,7 +5249,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5271,20 +5274,20 @@
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S65" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
@@ -5292,17 +5295,17 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -5322,7 +5325,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5347,20 +5350,20 @@
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S66" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
@@ -5368,17 +5371,17 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -5398,7 +5401,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5423,20 +5426,20 @@
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S67" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
@@ -5444,17 +5447,17 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0</v>
@@ -5474,7 +5477,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5499,20 +5502,20 @@
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S68" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
@@ -5520,17 +5523,17 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -5550,7 +5553,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5575,20 +5578,20 @@
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S69" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
@@ -5596,17 +5599,17 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0</v>
@@ -5626,7 +5629,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -5651,20 +5654,20 @@
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S70" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
@@ -5672,17 +5675,17 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -5702,7 +5705,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -5727,20 +5730,20 @@
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S71" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
@@ -5748,17 +5751,17 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0</v>
@@ -5778,7 +5781,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -5803,20 +5806,20 @@
       </c>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S72" s="5">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U72" s="5">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
@@ -5824,17 +5827,17 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
@@ -6131,7 +6134,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6347,7 +6350,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6355,13 +6358,13 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -6415,7 +6418,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6423,13 +6426,13 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -6483,7 +6486,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6491,13 +6494,13 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -6551,7 +6554,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -6559,13 +6562,13 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -6619,7 +6622,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -6627,13 +6630,13 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -6687,7 +6690,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -6695,13 +6698,13 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -6755,7 +6758,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -6763,13 +6766,13 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -6823,7 +6826,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -6831,13 +6834,13 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -6891,7 +6894,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -6899,13 +6902,13 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -6959,7 +6962,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -6967,13 +6970,13 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -7027,7 +7030,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7035,13 +7038,13 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -7095,7 +7098,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7103,13 +7106,13 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -7163,7 +7166,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7171,13 +7174,13 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -7231,7 +7234,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7239,13 +7242,13 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -7299,7 +7302,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7307,13 +7310,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -7367,7 +7370,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7375,13 +7378,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -7435,7 +7438,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -7443,13 +7446,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -7503,7 +7506,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -7511,13 +7514,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -7571,7 +7574,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -7579,13 +7582,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -7639,7 +7642,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -7647,13 +7650,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -7707,7 +7710,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -7715,13 +7718,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -7775,7 +7778,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -7783,13 +7786,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -7843,7 +7846,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -7851,13 +7854,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -7911,7 +7914,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -7919,13 +7922,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -7979,7 +7982,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -7987,13 +7990,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -8047,7 +8050,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -8055,13 +8058,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -8115,7 +8118,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -8123,13 +8126,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -8183,7 +8186,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -8191,13 +8194,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -8251,7 +8254,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -8259,13 +8262,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -8319,7 +8322,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -8327,13 +8330,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -8387,7 +8390,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -8395,13 +8398,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -8455,7 +8458,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
@@ -8463,13 +8466,13 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -8491,7 +8494,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -8506,42 +8509,42 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V38" s="2">
         <v>1</v>
       </c>
       <c r="W38" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
       <c r="Y38" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -8563,7 +8566,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
@@ -8578,42 +8581,42 @@
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S39" s="8">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U39" s="8">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V39" s="9">
         <v>1</v>
       </c>
       <c r="W39" s="8">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9">
         <v>0.01</v>
       </c>
       <c r="Y39" s="8">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0</v>
@@ -8636,7 +8639,7 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -8651,42 +8654,42 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S40" s="11">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V40" s="12">
         <v>1</v>
       </c>
       <c r="W40" s="11">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
       <c r="Y40" s="11">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0</v>
@@ -8709,7 +8712,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -8724,42 +8727,42 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S41" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V41" s="2">
         <v>1</v>
       </c>
       <c r="W41" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
       <c r="Y41" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -8781,7 +8784,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -8796,42 +8799,42 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S42" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V42" s="2">
         <v>1</v>
       </c>
       <c r="W42" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
       <c r="Y42" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -8853,7 +8856,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -8868,42 +8871,42 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S43" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V43" s="2">
         <v>1</v>
       </c>
       <c r="W43" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
       <c r="Y43" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -8925,7 +8928,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -8940,42 +8943,42 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S44" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V44" s="2">
         <v>1</v>
       </c>
       <c r="W44" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
       <c r="Y44" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -8997,7 +9000,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -9012,42 +9015,42 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S45" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V45" s="2">
         <v>1</v>
       </c>
       <c r="W45" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
       <c r="Y45" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -9069,7 +9072,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -9084,42 +9087,42 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S46" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V46" s="2">
         <v>1</v>
       </c>
       <c r="W46" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
       <c r="Y46" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -9141,7 +9144,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -9156,42 +9159,42 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S47" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V47" s="2">
         <v>1</v>
       </c>
       <c r="W47" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
       <c r="Y47" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -9213,7 +9216,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -9228,42 +9231,42 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S48" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V48" s="2">
         <v>1</v>
       </c>
       <c r="W48" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
       <c r="Y48" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0</v>
@@ -9285,7 +9288,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -9300,42 +9303,42 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S49" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V49" s="2">
         <v>1</v>
       </c>
       <c r="W49" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
       <c r="Y49" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -9357,7 +9360,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -9372,42 +9375,42 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S50" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V50" s="2">
         <v>1</v>
       </c>
       <c r="W50" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
       <c r="Y50" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -9429,7 +9432,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -9444,42 +9447,42 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S51" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V51" s="2">
         <v>1</v>
       </c>
       <c r="W51" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
       <c r="Y51" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -9501,7 +9504,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -9516,42 +9519,42 @@
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S52" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V52" s="2">
         <v>1</v>
       </c>
       <c r="W52" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
       </c>
       <c r="Y52" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0</v>
@@ -9573,7 +9576,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -9588,42 +9591,42 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S53" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V53" s="14">
         <v>1</v>
       </c>
       <c r="W53" s="13">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
       </c>
       <c r="Y53" s="13">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
@@ -9646,7 +9649,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -9661,42 +9664,42 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S54" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V54" s="2">
         <v>1</v>
       </c>
       <c r="W54" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
       </c>
       <c r="Y54" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -9718,7 +9721,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -9733,42 +9736,42 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S55" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V55" s="2">
         <v>1</v>
       </c>
       <c r="W55" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
       </c>
       <c r="Y55" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -9790,7 +9793,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -9805,42 +9808,42 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S56" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V56" s="2">
         <v>1</v>
       </c>
       <c r="W56" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
       </c>
       <c r="Y56" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -9862,7 +9865,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -9877,42 +9880,42 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S57" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V57" s="14">
         <v>1</v>
       </c>
       <c r="W57" s="13">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
       </c>
       <c r="Y57" s="13">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
@@ -9935,7 +9938,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -9950,42 +9953,42 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S58" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V58" s="2">
         <v>1</v>
       </c>
       <c r="W58" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
       </c>
       <c r="Y58" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -10007,7 +10010,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -10022,42 +10025,42 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S59" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V59" s="2">
         <v>1</v>
       </c>
       <c r="W59" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
       </c>
       <c r="Y59" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -10079,7 +10082,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -10094,42 +10097,42 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S60" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V60" s="2">
         <v>1</v>
       </c>
       <c r="W60" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
       </c>
       <c r="Y60" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -10151,7 +10154,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -10166,42 +10169,42 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S61" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V61" s="2">
         <v>1</v>
       </c>
       <c r="W61" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
       </c>
       <c r="Y61" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -10223,7 +10226,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -10238,42 +10241,42 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S62" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V62" s="2">
         <v>1</v>
       </c>
       <c r="W62" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
       </c>
       <c r="Y62" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -10295,7 +10298,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -10310,42 +10313,42 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S63" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V63" s="2">
         <v>1</v>
       </c>
       <c r="W63" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
       </c>
       <c r="Y63" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -10367,7 +10370,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -10382,42 +10385,42 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S64" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V64" s="2">
         <v>1</v>
       </c>
       <c r="W64" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
       </c>
       <c r="Y64" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -10439,7 +10442,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -10454,42 +10457,42 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S65" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V65" s="2">
         <v>1</v>
       </c>
       <c r="W65" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
       </c>
       <c r="Y65" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -10511,7 +10514,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -10526,42 +10529,42 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S66" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V66" s="2">
         <v>1</v>
       </c>
       <c r="W66" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
       </c>
       <c r="Y66" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -10583,7 +10586,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -10598,42 +10601,42 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S67" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V67" s="2">
         <v>1</v>
       </c>
       <c r="W67" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
       </c>
       <c r="Y67" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0</v>
@@ -10655,7 +10658,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -10670,42 +10673,42 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S68" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V68" s="2">
         <v>1</v>
       </c>
       <c r="W68" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
       </c>
       <c r="Y68" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -10727,7 +10730,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -10742,42 +10745,42 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S69" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V69" s="2">
         <v>1</v>
       </c>
       <c r="W69" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
       </c>
       <c r="Y69" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0</v>
@@ -10799,7 +10802,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -10814,42 +10817,42 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S70" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V70" s="2">
         <v>1</v>
       </c>
       <c r="W70" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
       </c>
       <c r="Y70" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -10871,7 +10874,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -10886,42 +10889,42 @@
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S71" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V71" s="2">
         <v>1</v>
       </c>
       <c r="W71" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
       </c>
       <c r="Y71" s="1">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0</v>
@@ -10943,7 +10946,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>4000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -10958,42 +10961,42 @@
       <c r="N72" s="5"/>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S72" s="5">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U72" s="5">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="V72" s="16">
         <v>1</v>
       </c>
       <c r="W72" s="5">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16">
         <v>0.01</v>
       </c>
       <c r="Y72" s="5">
-        <v>-4000.0</v>
+        <v>-48000.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
@@ -11265,14 +11268,568 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>2023</v>
+      </c>
+      <c r="B38">
+        <v>100.0</v>
+      </c>
+      <c r="C38">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39">
+        <v>100.0</v>
+      </c>
+      <c r="C39">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2025</v>
+      </c>
+      <c r="B40">
+        <v>100.0</v>
+      </c>
+      <c r="C40">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2026</v>
+      </c>
+      <c r="B41">
+        <v>100.0</v>
+      </c>
+      <c r="C41">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>2027</v>
+      </c>
+      <c r="B42">
+        <v>100.0</v>
+      </c>
+      <c r="C42">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>2028</v>
+      </c>
+      <c r="B43">
+        <v>100.0</v>
+      </c>
+      <c r="C43">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>2029</v>
+      </c>
+      <c r="B44">
+        <v>100.0</v>
+      </c>
+      <c r="C44">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2030</v>
+      </c>
+      <c r="B45">
+        <v>100.0</v>
+      </c>
+      <c r="C45">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>2031</v>
+      </c>
+      <c r="B46">
+        <v>100.0</v>
+      </c>
+      <c r="C46">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>2032</v>
+      </c>
+      <c r="B47">
+        <v>100.0</v>
+      </c>
+      <c r="C47">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2033</v>
+      </c>
+      <c r="B48">
+        <v>100.0</v>
+      </c>
+      <c r="C48">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>2034</v>
+      </c>
+      <c r="B49">
+        <v>100.0</v>
+      </c>
+      <c r="C49">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>2035</v>
+      </c>
+      <c r="B50">
+        <v>100.0</v>
+      </c>
+      <c r="C50">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>2036</v>
+      </c>
+      <c r="B51">
+        <v>100.0</v>
+      </c>
+      <c r="C51">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2037</v>
+      </c>
+      <c r="B52">
+        <v>100.0</v>
+      </c>
+      <c r="C52">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2038</v>
+      </c>
+      <c r="B53">
+        <v>100.0</v>
+      </c>
+      <c r="C53">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2039</v>
+      </c>
+      <c r="B54">
+        <v>100.0</v>
+      </c>
+      <c r="C54">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2040</v>
+      </c>
+      <c r="B55">
+        <v>100.0</v>
+      </c>
+      <c r="C55">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2041</v>
+      </c>
+      <c r="B56">
+        <v>100.0</v>
+      </c>
+      <c r="C56">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>2042</v>
+      </c>
+      <c r="B57">
+        <v>100.0</v>
+      </c>
+      <c r="C57">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>2043</v>
+      </c>
+      <c r="B58">
+        <v>100.0</v>
+      </c>
+      <c r="C58">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2044</v>
+      </c>
+      <c r="B59">
+        <v>100.0</v>
+      </c>
+      <c r="C59">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>2045</v>
+      </c>
+      <c r="B60">
+        <v>100.0</v>
+      </c>
+      <c r="C60">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2046</v>
+      </c>
+      <c r="B61">
+        <v>100.0</v>
+      </c>
+      <c r="C61">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>2047</v>
+      </c>
+      <c r="B62">
+        <v>100.0</v>
+      </c>
+      <c r="C62">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>2048</v>
+      </c>
+      <c r="B63">
+        <v>100.0</v>
+      </c>
+      <c r="C63">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>2049</v>
+      </c>
+      <c r="B64">
+        <v>100.0</v>
+      </c>
+      <c r="C64">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>2050</v>
+      </c>
+      <c r="B65">
+        <v>100.0</v>
+      </c>
+      <c r="C65">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>2051</v>
+      </c>
+      <c r="B66">
+        <v>100.0</v>
+      </c>
+      <c r="C66">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>2052</v>
+      </c>
+      <c r="B67">
+        <v>100.0</v>
+      </c>
+      <c r="C67">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>2053</v>
+      </c>
+      <c r="B68">
+        <v>100.0</v>
+      </c>
+      <c r="C68">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>2054</v>
+      </c>
+      <c r="B69">
+        <v>100.0</v>
+      </c>
+      <c r="C69">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>2055</v>
+      </c>
+      <c r="B70">
+        <v>100.0</v>
+      </c>
+      <c r="C70">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>2056</v>
+      </c>
+      <c r="B71">
+        <v>100.0</v>
+      </c>
+      <c r="C71">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>2057</v>
+      </c>
+      <c r="B72">
+        <v>100.0</v>
+      </c>
+      <c r="C72">
+        <v>100.0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
